--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD874D87-FC35-8341-845C-C15CED47D961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52B18CA-C425-BF4A-BBF7-8BD0C5DC6B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,17 +550,24 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -723,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -887,12 +894,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -933,19 +949,10 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1012,6 +1019,23 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1024,12 +1048,12 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2218,39 +2242,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>38.57</v>
+    <v>30</v>
     <v>12.69</v>
-    <v>1.9490000000000001</v>
-    <v>0.38</v>
-    <v>2.3355999999999998E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.9359999999999999</v>
+    <v>0.25</v>
+    <v>1.2575000000000001E-2</v>
     <v>USD</v>
-    <v>SentinelOne, Inc. is a cybersecurity company that has developed an artificial intelligence (AI) extended detection and response (XDR) platform to enable autonomous cybersecurity defense. XDR platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real-time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
+    <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
     <v>2100</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>16.715</v>
+    <v>20.94</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45022.999089895311</v>
+    <v>45071.992660173441</v>
     <v>0</v>
-    <v>15.81</v>
-    <v>4805539650</v>
+    <v>19.779</v>
+    <v>5862564576</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>16.02</v>
+    <v>20.73</v>
     <v>0</v>
-    <v>16.27</v>
-    <v>16.649999999999999</v>
-    <v>16.649999999999999</v>
-    <v>288621000</v>
+    <v>19.88</v>
+    <v>20.13</v>
+    <v>291235200</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>8628573</v>
-    <v>7334146</v>
+    <v>162</v>
+    <v>6352935</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2282,8 +2303,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2304,7 +2323,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2321,7 +2339,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2332,16 +2350,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2407,19 +2422,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2464,9 +2473,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2474,9 +2480,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2838,10 +2841,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H96" sqref="H96"/>
+      <selection pane="bottomRight" activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2867,19 +2870,19 @@
       <c r="E1" s="8">
         <v>2023</v>
       </c>
-      <c r="F1" s="24">
+      <c r="F1" s="23">
         <v>2024</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="23">
         <v>2025</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="23">
         <v>2026</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I1" s="23">
         <v>2027</v>
       </c>
-      <c r="J1" s="24">
+      <c r="J1" s="23">
         <v>2028</v>
       </c>
     </row>
@@ -2931,20 +2934,20 @@
       <c r="E3" s="1">
         <v>422179000</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>635000000</v>
       </c>
-      <c r="G3" s="25">
-        <v>900000000</v>
-      </c>
-      <c r="H3" s="25">
-        <v>1200000000</v>
-      </c>
-      <c r="I3" s="25">
-        <v>1500000000</v>
-      </c>
-      <c r="J3" s="25">
-        <v>1750000000</v>
+      <c r="G3" s="24">
+        <v>915000000</v>
+      </c>
+      <c r="H3" s="24">
+        <v>1249000000</v>
+      </c>
+      <c r="I3" s="24">
+        <v>1636000000</v>
+      </c>
+      <c r="J3" s="24">
+        <v>2046000000</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>107</v>
@@ -2964,9 +2967,8 @@
         <v>94</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15" t="e">
-        <f>(C3/B3)-1</f>
-        <v>#VALUE!</v>
+      <c r="C4" s="15">
+        <v>0</v>
       </c>
       <c r="D4" s="15">
         <f>(D3/C3)-1</f>
@@ -2982,34 +2984,34 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.41732283464566922</v>
+        <v>0.44094488188976388</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4" si="1">(H3/G3)-1</f>
-        <v>0.33333333333333326</v>
+        <v>0.36502732240437163</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" ref="I4" si="2">(I3/H3)-1</f>
-        <v>0.25</v>
+        <v>0.30984787830264215</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" ref="J4" si="3">(J3/I3)-1</f>
-        <v>0.16666666666666674</v>
+        <v>0.25061124694376535</v>
       </c>
       <c r="K4" s="17">
-        <f>(F4+E4+D4)/3</f>
-        <v>0.92211562273084346</v>
+        <f>(E4+D4+C4)/3</f>
+        <v>0.7540818424307022</v>
       </c>
       <c r="L4" s="17">
-        <f>(F20+E20+D20)/3</f>
+        <f>(E20+D20+C20)/3</f>
         <v>0.59529635657244151</v>
       </c>
       <c r="M4" s="17">
-        <f>(F29+E29+D29)/3</f>
+        <f>(C29+E29+D29)/3</f>
         <v>0.56718147949294995</v>
       </c>
       <c r="N4" s="17">
-        <f>(F105+E105+D105)/3</f>
+        <f>(E105+D105+C105)/3</f>
         <v>0.47282894379719304</v>
       </c>
       <c r="S4" s="16"/>
@@ -3047,7 +3049,7 @@
       <c r="E5" s="1">
         <v>144177000</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <f>F3-F6</f>
         <v>206375000</v>
       </c>
@@ -3068,9 +3070,13 @@
       <c r="E6" s="10">
         <v>278002000</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <v>428625000</v>
       </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="19" t="s">
         <v>111</v>
       </c>
@@ -3287,7 +3293,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.24299799904026365</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="61">
         <f>E67/E72</f>
         <v>0.42751727072713608</v>
       </c>
@@ -3355,24 +3361,24 @@
         <f>E15+E5</f>
         <v>824755000</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="25">
         <f>(E35+D35)/2</f>
         <v>0.17944553344566033</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="60">
         <f>M101/E3</f>
-        <v>11.382706506008114</v>
-      </c>
-      <c r="M16" s="27">
+        <v>13.886442897443976</v>
+      </c>
+      <c r="M16" s="60">
         <f>M101/E28</f>
-        <v>-12.700132536966317</v>
-      </c>
-      <c r="N16" s="28">
+        <v>-15.493649526276148</v>
+      </c>
+      <c r="N16" s="62">
         <f>M101/E106</f>
-        <v>-23.09989112304298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>-28.180935601563213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>-1830000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3409,8 +3415,14 @@
       <c r="K18" s="19" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3426,19 +3438,41 @@
       <c r="E19" s="10">
         <v>-384271000</v>
       </c>
-      <c r="K19" s="29">
+      <c r="F19" s="27">
+        <v>-148400000</v>
+      </c>
+      <c r="G19" s="27">
+        <v>-4756000</v>
+      </c>
+      <c r="H19" s="27">
+        <v>139200000</v>
+      </c>
+      <c r="I19" s="27">
+        <v>264300000</v>
+      </c>
+      <c r="J19" s="27">
+        <v>433800000</v>
+      </c>
+      <c r="K19" s="26">
         <f>E40-E56-E61</f>
         <v>623525000</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="60">
+        <f>M101/F3</f>
+        <v>9.2323851590551183</v>
+      </c>
+      <c r="M19" s="69">
+        <f>M101/F28</f>
+        <v>-40.044840000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="15" t="e">
-        <f>(C19/B19)-1</f>
-        <v>#VALUE!</v>
+      <c r="C20" s="15">
+        <v>0</v>
       </c>
       <c r="D20" s="15">
         <f>(D19/C19)-1</f>
@@ -3448,9 +3482,28 @@
         <f>(E19/D19)-1</f>
         <v>0.47004410847701417</v>
       </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="16">
+        <f t="shared" ref="F20:J20" si="6">(F19/E19)-1</f>
+        <v>-0.61381420924295615</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="6"/>
+        <v>-0.96795148247978435</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="6"/>
+        <v>-30.26829268292683</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.8987068965517242</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.6413166855845629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3467,8 +3520,28 @@
         <f>E19/E3</f>
         <v>-0.91020870294353817</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F21" s="72">
+        <f t="shared" ref="F21:J21" si="7">F19/F3</f>
+        <v>-0.23370078740157479</v>
+      </c>
+      <c r="G21" s="72">
+        <f t="shared" si="7"/>
+        <v>-5.1978142076502731E-3</v>
+      </c>
+      <c r="H21" s="72">
+        <f t="shared" si="7"/>
+        <v>0.11144915932746197</v>
+      </c>
+      <c r="I21" s="72">
+        <f t="shared" si="7"/>
+        <v>0.16155256723716382</v>
+      </c>
+      <c r="J21" s="72">
+        <f t="shared" si="7"/>
+        <v>0.2120234604105572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3485,7 +3558,7 @@
         <v>-402576000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3503,7 +3576,7 @@
         <v>-0.95356708884146302</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3520,7 +3593,7 @@
         <v>-1293000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3537,7 +3610,7 @@
         <v>-383998000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3555,7 +3628,7 @@
         <v>-0.90956205780012744</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3572,7 +3645,7 @@
         <v>-5613000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3588,15 +3661,29 @@
       <c r="E28" s="11">
         <v>-378385000</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="70">
+        <v>-146400000</v>
+      </c>
+      <c r="G28" s="70">
+        <v>-10510000</v>
+      </c>
+      <c r="H28" s="70">
+        <v>92695000</v>
+      </c>
+      <c r="I28" s="70">
+        <v>172000000</v>
+      </c>
+      <c r="J28" s="70">
+        <v>326000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="15" t="e">
-        <f>(C28/B28)-1</f>
-        <v>#VALUE!</v>
+      <c r="C29" s="15">
+        <v>0</v>
       </c>
       <c r="D29" s="15">
         <f>(D28/C28)-1</f>
@@ -3606,9 +3693,28 @@
         <f>(E28/D28)-1</f>
         <v>0.39573443107919193</v>
       </c>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F29" s="16">
+        <f t="shared" ref="F29:J29" si="8">(F28/E28)-1</f>
+        <v>-0.61309248516722392</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="8"/>
+        <v>-0.92821038251366117</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="8"/>
+        <v>-9.8196955280685057</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="8"/>
+        <v>0.85554776417282485</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="8"/>
+        <v>0.89534883720930236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3625,8 +3731,28 @@
         <f>E28/E3</f>
         <v>-0.89626674941197926</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F30" s="71">
+        <f t="shared" ref="F30:J30" si="9">F28/F3</f>
+        <v>-0.2305511811023622</v>
+      </c>
+      <c r="G30" s="71">
+        <f t="shared" si="9"/>
+        <v>-1.1486338797814208E-2</v>
+      </c>
+      <c r="H30" s="71">
+        <f t="shared" si="9"/>
+        <v>7.421537229783827E-2</v>
+      </c>
+      <c r="I30" s="71">
+        <f t="shared" si="9"/>
+        <v>0.10513447432762836</v>
+      </c>
+      <c r="J30" s="71">
+        <f t="shared" si="9"/>
+        <v>0.15933528836754643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3643,7 +3769,7 @@
         <v>-1.36</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3699,19 +3825,19 @@
         <v>103</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="23" t="e">
+      <c r="C35" s="22" t="e">
         <f>(C34-B34)/B34</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="23">
-        <f t="shared" ref="D35:E35" si="6">(D34-C34)/C34</f>
+      <c r="D35" s="22">
+        <f t="shared" ref="D35:E35" si="10">(D34-C34)/C34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="23">
-        <f t="shared" si="6"/>
+      <c r="E35" s="22">
+        <f t="shared" si="10"/>
         <v>0.35889106689132066</v>
       </c>
-      <c r="F35" s="23"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -4467,19 +4593,19 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:E80" si="7">B79/B3</f>
+        <f t="shared" ref="B80:E80" si="11">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.17099381017881707</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.42914760325978152</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.38956461595673875</v>
       </c>
       <c r="F80" s="15"/>
@@ -4532,10 +4658,10 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="61" t="s">
+      <c r="L83" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="M83" s="62"/>
+      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4553,10 +4679,10 @@
       <c r="E84" s="1">
         <v>3670000</v>
       </c>
-      <c r="L84" s="63" t="s">
+      <c r="L84" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="M84" s="64"/>
+      <c r="M84" s="68"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4572,10 +4698,10 @@
         <v>61577000</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="L85" s="31" t="s">
+      <c r="L85" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="M85" s="32">
+      <c r="M85" s="29">
         <f>E17</f>
         <v>-1830000</v>
       </c>
@@ -4596,10 +4722,10 @@
       <c r="E86" s="1">
         <v>-12217000</v>
       </c>
-      <c r="L86" s="31" t="s">
+      <c r="L86" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="M86" s="32">
+      <c r="M86" s="29">
         <f>E56</f>
         <v>0</v>
       </c>
@@ -4620,10 +4746,10 @@
       <c r="E87" s="10">
         <v>-193287000</v>
       </c>
-      <c r="L87" s="31" t="s">
+      <c r="L87" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="M87" s="32">
+      <c r="M87" s="29">
         <f>E61</f>
         <v>0</v>
       </c>
@@ -4644,10 +4770,10 @@
       <c r="E88" s="1">
         <v>-18812000</v>
       </c>
-      <c r="L88" s="33" t="s">
+      <c r="L88" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="M88" s="34">
+      <c r="M88" s="31">
         <v>0</v>
       </c>
     </row>
@@ -4656,25 +4782,25 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:E89" si="8">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:E89" si="12">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.5279831499312242E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.7837001157232212E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.4559298307116177E-2</v>
       </c>
-      <c r="L89" s="31" t="s">
+      <c r="L89" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="M89" s="32">
+      <c r="M89" s="29">
         <f>E27</f>
         <v>-5613000</v>
       </c>
@@ -4695,10 +4821,10 @@
       <c r="E90" s="1">
         <v>-281032000</v>
       </c>
-      <c r="L90" s="31" t="s">
+      <c r="L90" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="32">
+      <c r="M90" s="29">
         <f>E25</f>
         <v>-383998000</v>
       </c>
@@ -4719,10 +4845,10 @@
       <c r="E91" s="1">
         <v>925185000</v>
       </c>
-      <c r="L91" s="33" t="s">
+      <c r="L91" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="M91" s="34">
+      <c r="M91" s="31">
         <f>M89/M90</f>
         <v>1.4617263631581414E-2</v>
       </c>
@@ -4743,10 +4869,10 @@
       <c r="E92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L92" s="35" t="s">
+      <c r="L92" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="M92" s="36">
+      <c r="M92" s="33">
         <f>M88*(1-M91)</f>
         <v>0</v>
       </c>
@@ -4765,10 +4891,10 @@
         <v>-6641000</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="L93" s="63" t="s">
+      <c r="L93" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="M93" s="64"/>
+      <c r="M93" s="68"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4786,10 +4912,10 @@
       <c r="E94" s="10">
         <v>-1312666000</v>
       </c>
-      <c r="L94" s="31" t="s">
+      <c r="L94" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="M94" s="37">
+      <c r="M94" s="34">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -4809,12 +4935,12 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="L95" s="31" t="s">
+      <c r="L95" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="M95" s="38" cm="1">
+      <c r="M95" s="35" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.9490000000000001</v>
+        <v>1.9359999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4833,10 +4959,10 @@
       <c r="E96" s="1">
         <v>36494000</v>
       </c>
-      <c r="L96" s="31" t="s">
+      <c r="L96" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="M96" s="37">
+      <c r="M96" s="34">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4856,12 +4982,12 @@
       <c r="E97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L97" s="35" t="s">
+      <c r="L97" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="M97" s="36">
+      <c r="M97" s="33">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12485445000000002</v>
+        <v>0.12429480000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4880,10 +5006,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="63" t="s">
+      <c r="L98" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="M98" s="64"/>
+      <c r="M98" s="68"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4901,10 +5027,10 @@
       <c r="E99" s="1">
         <v>-186000</v>
       </c>
-      <c r="L99" s="31" t="s">
+      <c r="L99" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M99" s="32">
+      <c r="M99" s="29">
         <f>M86+M87</f>
         <v>0</v>
       </c>
@@ -4925,10 +5051,10 @@
       <c r="E100" s="10">
         <v>36308000</v>
       </c>
-      <c r="L100" s="33" t="s">
+      <c r="L100" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="M100" s="34">
+      <c r="M100" s="31">
         <f>M99/M103</f>
         <v>0</v>
       </c>
@@ -4949,12 +5075,12 @@
       <c r="E101" s="1">
         <v>0</v>
       </c>
-      <c r="L101" s="31" t="s">
+      <c r="L101" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="M101" s="39" cm="1">
+      <c r="M101" s="36" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4805539650</v>
+        <v>5862564576</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4973,10 +5099,10 @@
       <c r="E102" s="10">
         <v>1469645000</v>
       </c>
-      <c r="L102" s="33" t="s">
+      <c r="L102" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="M102" s="34">
+      <c r="M102" s="31">
         <f>M101/M103</f>
         <v>1</v>
       </c>
@@ -4997,12 +5123,12 @@
       <c r="E103" s="1">
         <v>1672051</v>
       </c>
-      <c r="L103" s="35" t="s">
+      <c r="L103" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="M103" s="40">
+      <c r="M103" s="37">
         <f>M99+M101</f>
-        <v>4805539650</v>
+        <v>5862564576</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5021,19 +5147,18 @@
       <c r="E104" s="11">
         <v>202406000</v>
       </c>
-      <c r="L104" s="63" t="s">
+      <c r="L104" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="M104" s="64"/>
+      <c r="M104" s="68"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
+      <c r="C105" s="15">
+        <v>0</v>
       </c>
       <c r="D105" s="15">
         <f>(D106/C106)-1</f>
@@ -5043,18 +5168,28 @@
         <f>(E106/D106)-1</f>
         <v>0.96476266031997882</v>
       </c>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
+      <c r="F105" s="58">
+        <v>-53000000</v>
+      </c>
+      <c r="G105" s="58">
+        <v>119000000</v>
+      </c>
+      <c r="H105" s="58">
+        <v>283000000</v>
+      </c>
+      <c r="I105" s="58">
+        <v>464000000</v>
+      </c>
+      <c r="J105" s="58">
+        <v>555000000</v>
+      </c>
       <c r="K105" s="15"/>
-      <c r="L105" s="41" t="s">
+      <c r="L105" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="M105" s="42">
+      <c r="M105" s="39">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12485445000000002</v>
+        <v>0.12429480000000001</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5073,35 +5208,35 @@
       <c r="E106" s="1">
         <v>-208033000</v>
       </c>
-      <c r="F106" s="43">
+      <c r="F106" s="40">
         <f>E106*(1+$M$106)</f>
-        <v>-277575277.10227603</v>
-      </c>
-      <c r="G106" s="43">
-        <f t="shared" ref="G106:J106" si="9">F106*(1+$M$106)</f>
-        <v>-370364482.83880597</v>
-      </c>
-      <c r="H106" s="43">
-        <f t="shared" si="9"/>
-        <v>-494171712.91488719</v>
-      </c>
-      <c r="I106" s="43">
-        <f t="shared" si="9"/>
-        <v>-659365822.48228025</v>
-      </c>
-      <c r="J106" s="43">
-        <f t="shared" si="9"/>
-        <v>-879781817.72742355</v>
-      </c>
-      <c r="K106" s="44" t="s">
+        <v>-285859504.60596913</v>
+      </c>
+      <c r="G106" s="40">
+        <f t="shared" ref="G106:J106" si="13">F106*(1+$M$106)</f>
+        <v>-392801413.11027622</v>
+      </c>
+      <c r="H106" s="40">
+        <f t="shared" si="13"/>
+        <v>-539750988.35390639</v>
+      </c>
+      <c r="I106" s="40">
+        <f t="shared" si="13"/>
+        <v>-741675359.87766325</v>
+      </c>
+      <c r="J106" s="40">
+        <f t="shared" si="13"/>
+        <v>-1019140958.1801095</v>
+      </c>
+      <c r="K106" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="L106" s="45" t="s">
+      <c r="L106" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="M106" s="46">
+      <c r="M106" s="43">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.33428483510921858</v>
+        <v>0.37410653408819339</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5109,139 +5244,140 @@
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="47">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>-9030908118.4725266</v>
-      </c>
-      <c r="K107" s="48" t="s">
+      <c r="E107" s="1"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="59">
+        <f>J105*(1+M107)/(M108-M107)</f>
+        <v>5729151979.7612753</v>
+      </c>
+      <c r="K107" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="L107" s="49" t="s">
+      <c r="L107" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="M107" s="50">
+      <c r="M107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="47">
-        <f t="shared" ref="F108:H108" si="10">F107+F106</f>
-        <v>-277575277.10227603</v>
-      </c>
-      <c r="G108" s="47">
-        <f t="shared" si="10"/>
-        <v>-370364482.83880597</v>
-      </c>
-      <c r="H108" s="47">
-        <f t="shared" si="10"/>
-        <v>-494171712.91488719</v>
-      </c>
-      <c r="I108" s="47">
+      <c r="F108" s="44">
+        <f t="shared" ref="F108:H108" si="14">F107+F106</f>
+        <v>-285859504.60596913</v>
+      </c>
+      <c r="G108" s="44">
+        <f t="shared" si="14"/>
+        <v>-392801413.11027622</v>
+      </c>
+      <c r="H108" s="44">
+        <f t="shared" si="14"/>
+        <v>-539750988.35390639</v>
+      </c>
+      <c r="I108" s="44">
         <f>I107+I106</f>
-        <v>-659365822.48228025</v>
-      </c>
-      <c r="J108" s="47">
-        <f>J107+J106</f>
-        <v>-9910689936.1999493</v>
-      </c>
-      <c r="K108" s="48" t="s">
+        <v>-741675359.87766325</v>
+      </c>
+      <c r="J108" s="59">
+        <f>J107+J105</f>
+        <v>6284151979.7612753</v>
+      </c>
+      <c r="K108" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="L108" s="51" t="s">
+      <c r="L108" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="M108" s="52">
+      <c r="M108" s="49">
         <f>M105</f>
-        <v>0.12485445000000002</v>
+        <v>0.12429480000000001</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="65" t="s">
+      <c r="F109" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="G109" s="66"/>
+      <c r="G109" s="64"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="53" t="s">
+      <c r="F110" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="G110" s="39">
+      <c r="G110" s="36">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>-6801822100.8887682</v>
+        <v>2089215320.4734793</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="53" t="s">
+      <c r="F111" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="G111" s="39">
+      <c r="G111" s="36">
         <f>E40</f>
         <v>623525000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="53" t="s">
+      <c r="F112" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="G112" s="39">
+      <c r="G112" s="36">
         <f>M99</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="53" t="s">
+      <c r="F113" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="G113" s="39">
+      <c r="G113" s="36">
         <f>G110+G111-G112</f>
-        <v>-6178297100.8887682</v>
+        <v>2712740320.4734793</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="53" t="s">
+      <c r="F114" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="G114" s="54" cm="1">
+      <c r="G114" s="51" cm="1">
         <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>288621000</v>
+        <v>291235200</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="55" t="s">
+      <c r="F115" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G115" s="56">
+      <c r="G115" s="53">
         <f>G113/G114</f>
-        <v>-21.406263234098585</v>
+        <v>9.3146031814611678</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="53" t="s">
+      <c r="F116" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="G116" s="57" cm="1">
+      <c r="G116" s="54" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>16.649999999999999</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="58" t="s">
+      <c r="F117" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G117" s="59">
+      <c r="G117" s="56">
         <f>G115/G116-1</f>
-        <v>-2.2856614555014163</v>
+        <v>-0.5372775369368521</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="58" t="s">
+      <c r="F118" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="G118" s="60" t="str">
+      <c r="G118" s="57" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52B18CA-C425-BF4A-BBF7-8BD0C5DC6B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15EB69-BC03-474B-83BC-0957AAC95239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,6 +1030,12 @@
     <xf numFmtId="168" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1048,12 +1054,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2245,8 +2245,10 @@
     <v>30</v>
     <v>12.69</v>
     <v>1.9359999999999999</v>
-    <v>0.25</v>
-    <v>1.2575000000000001E-2</v>
+    <v>0.52</v>
+    <v>2.5832000000000001E-2</v>
+    <v>0.11</v>
+    <v>5.3269999999999993E-3</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
     <v>2100</v>
@@ -2254,24 +2256,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>20.94</v>
+    <v>21.15</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.992660173441</v>
+    <v>45072.99984009219</v>
     <v>0</v>
-    <v>19.779</v>
-    <v>5862564576</v>
+    <v>20.18</v>
+    <v>6014007000</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>20.73</v>
+    <v>20.239999999999998</v>
     <v>0</v>
-    <v>19.88</v>
     <v>20.13</v>
+    <v>20.65</v>
+    <v>20.76</v>
     <v>291235200</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>162</v>
-    <v>6352935</v>
+    <v>3770004</v>
+    <v>6275232</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2303,6 +2306,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2323,6 +2328,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2339,7 +2345,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2350,13 +2356,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2422,13 +2431,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2473,6 +2488,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2480,6 +2498,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2841,10 +2862,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F127" sqref="F127"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3367,15 +3388,15 @@
       </c>
       <c r="L16" s="60">
         <f>M101/E3</f>
-        <v>13.886442897443976</v>
+        <v>14.245159043912652</v>
       </c>
       <c r="M16" s="60">
         <f>M101/E28</f>
-        <v>-15.493649526276148</v>
+        <v>-15.893883214186609</v>
       </c>
       <c r="N16" s="62">
         <f>M101/E106</f>
-        <v>-28.180935601563213</v>
+        <v>-28.908908682757062</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3459,11 +3480,11 @@
       </c>
       <c r="L19" s="60">
         <f>M101/F3</f>
-        <v>9.2323851590551183</v>
-      </c>
-      <c r="M19" s="69">
+        <v>9.4708771653543309</v>
+      </c>
+      <c r="M19" s="63">
         <f>M101/F28</f>
-        <v>-40.044840000000001</v>
+        <v>-41.079282786885244</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3520,23 +3541,23 @@
         <f>E19/E3</f>
         <v>-0.91020870294353817</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="66">
         <f t="shared" ref="F21:J21" si="7">F19/F3</f>
         <v>-0.23370078740157479</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="66">
         <f t="shared" si="7"/>
         <v>-5.1978142076502731E-3</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="66">
         <f t="shared" si="7"/>
         <v>0.11144915932746197</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="66">
         <f t="shared" si="7"/>
         <v>0.16155256723716382</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="66">
         <f t="shared" si="7"/>
         <v>0.2120234604105572</v>
       </c>
@@ -3661,19 +3682,19 @@
       <c r="E28" s="11">
         <v>-378385000</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="64">
         <v>-146400000</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="64">
         <v>-10510000</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="64">
         <v>92695000</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I28" s="64">
         <v>172000000</v>
       </c>
-      <c r="J28" s="70">
+      <c r="J28" s="64">
         <v>326000000</v>
       </c>
     </row>
@@ -3731,23 +3752,23 @@
         <f>E28/E3</f>
         <v>-0.89626674941197926</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30" s="65">
         <f t="shared" ref="F30:J30" si="9">F28/F3</f>
         <v>-0.2305511811023622</v>
       </c>
-      <c r="G30" s="71">
+      <c r="G30" s="65">
         <f t="shared" si="9"/>
         <v>-1.1486338797814208E-2</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="65">
         <f t="shared" si="9"/>
         <v>7.421537229783827E-2</v>
       </c>
-      <c r="I30" s="71">
+      <c r="I30" s="65">
         <f t="shared" si="9"/>
         <v>0.10513447432762836</v>
       </c>
-      <c r="J30" s="71">
+      <c r="J30" s="65">
         <f t="shared" si="9"/>
         <v>0.15933528836754643</v>
       </c>
@@ -4658,10 +4679,10 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="65" t="s">
+      <c r="L83" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="M83" s="66"/>
+      <c r="M83" s="70"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4679,10 +4700,10 @@
       <c r="E84" s="1">
         <v>3670000</v>
       </c>
-      <c r="L84" s="67" t="s">
+      <c r="L84" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="M84" s="68"/>
+      <c r="M84" s="72"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4891,10 +4912,10 @@
         <v>-6641000</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="L93" s="67" t="s">
+      <c r="L93" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="M93" s="68"/>
+      <c r="M93" s="72"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5006,10 +5027,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="67" t="s">
+      <c r="L98" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="M98" s="68"/>
+      <c r="M98" s="72"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5080,7 +5101,7 @@
       </c>
       <c r="M101" s="36" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5862564576</v>
+        <v>6014007000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5128,7 +5149,7 @@
       </c>
       <c r="M103" s="37">
         <f>M99+M101</f>
-        <v>5862564576</v>
+        <v>6014007000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5147,10 +5168,10 @@
       <c r="E104" s="11">
         <v>202406000</v>
       </c>
-      <c r="L104" s="67" t="s">
+      <c r="L104" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="M104" s="68"/>
+      <c r="M104" s="72"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5296,10 +5317,10 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="63" t="s">
+      <c r="F109" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="G109" s="64"/>
+      <c r="G109" s="68"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="50" t="s">
@@ -5361,7 +5382,7 @@
       </c>
       <c r="G116" s="54" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>20.13</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5370,7 +5391,7 @@
       </c>
       <c r="G117" s="56">
         <f>G115/G116-1</f>
-        <v>-0.5372775369368521</v>
+        <v>-0.54892962801640832</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15EB69-BC03-474B-83BC-0957AAC95239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E03122-7760-2641-B4A4-860BCC6F1276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="164">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -390,9 +390,6 @@
     <t>CAPEX as % of Revenue</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>3yr Rev Growth</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -537,9 +531,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -556,6 +547,24 @@
   </si>
   <si>
     <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
   </si>
 </sst>
 </file>
@@ -987,7 +996,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1036,6 +1044,9 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1306,11 +1317,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$B$106</c:f>
+              <c:f>'Sheet 1'!$A$107:$B$107</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1353,7 +1364,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$106:$E$106</c:f>
+              <c:f>'Sheet 1'!$C$107:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2086,13 +2097,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
@@ -2120,6 +2131,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2243,38 +2314,35 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>30</v>
-    <v>12.69</v>
-    <v>1.9359999999999999</v>
-    <v>0.52</v>
-    <v>2.5832000000000001E-2</v>
-    <v>0.11</v>
-    <v>5.3269999999999993E-3</v>
+    <v>12.43</v>
+    <v>1.8660000000000001</v>
+    <v>0.13</v>
+    <v>8.6040000000000005E-3</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
-    <v>2100</v>
+    <v>2200</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>21.15</v>
+    <v>15.63</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.99984009219</v>
+    <v>45099.999400682813</v>
     <v>0</v>
-    <v>20.18</v>
-    <v>6014007000</v>
+    <v>14.94</v>
+    <v>4450493004</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>20.239999999999998</v>
+    <v>15.11</v>
     <v>0</v>
-    <v>20.13</v>
-    <v>20.65</v>
-    <v>20.76</v>
-    <v>291235200</v>
+    <v>15.11</v>
+    <v>15.24</v>
+    <v>292027100</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>3770004</v>
-    <v>6275232</v>
+    <v>9242</v>
+    <v>11637354</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2306,8 +2374,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2328,7 +2394,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2345,7 +2410,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2356,16 +2421,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2431,19 +2493,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2488,9 +2544,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2498,9 +2551,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2862,10 +2912,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2912,25 +2962,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -2944,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>93056000</v>
@@ -2956,36 +3006,36 @@
         <v>422179000</v>
       </c>
       <c r="F3" s="24">
-        <v>635000000</v>
+        <v>595000000</v>
       </c>
       <c r="G3" s="24">
-        <v>915000000</v>
+        <v>797700000</v>
       </c>
       <c r="H3" s="24">
-        <v>1249000000</v>
+        <v>1109000000</v>
       </c>
       <c r="I3" s="24">
-        <v>1636000000</v>
+        <v>1303000000</v>
       </c>
       <c r="J3" s="24">
-        <v>2046000000</v>
+        <v>1591000000</v>
       </c>
       <c r="K3" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="N3" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3001,23 +3051,23 @@
       </c>
       <c r="F4" s="16">
         <f t="shared" ref="F4:G4" si="0">(F3/E3)-1</f>
-        <v>0.5041013409004238</v>
+        <v>0.40935479974134203</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.44094488188976388</v>
+        <v>0.34067226890756297</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4" si="1">(H3/G3)-1</f>
-        <v>0.36502732240437163</v>
+        <v>0.3902469600100289</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" ref="I4" si="2">(I3/H3)-1</f>
-        <v>0.30984787830264215</v>
+        <v>0.17493237150586105</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" ref="J4" si="3">(J3/I3)-1</f>
-        <v>0.25061124694376535</v>
+        <v>0.22102839600920943</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -3032,7 +3082,7 @@
         <v>0.56718147949294995</v>
       </c>
       <c r="N4" s="17">
-        <f>(E105+D105+C105)/3</f>
+        <f>(E106+D106+C106)/3</f>
         <v>0.47282894379719304</v>
       </c>
       <c r="S4" s="16"/>
@@ -3059,7 +3109,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>39332000</v>
@@ -3070,17 +3120,14 @@
       <c r="E5" s="1">
         <v>144177000</v>
       </c>
-      <c r="F5" s="24">
-        <f>F3-F6</f>
-        <v>206375000</v>
-      </c>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>53724000</v>
@@ -3099,16 +3146,16 @@
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3116,7 +3163,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>0.57730000000000004</v>
@@ -3144,7 +3191,7 @@
         <v>-0.89626674941197926</v>
       </c>
       <c r="N7" s="21">
-        <f>E106/E3</f>
+        <f>E107/E3</f>
         <v>-0.49276017992368165</v>
       </c>
     </row>
@@ -3153,7 +3200,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1">
         <v>62444000</v>
@@ -3167,7 +3214,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3188,16 +3235,16 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="K9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3205,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1">
         <v>29059000</v>
@@ -3238,7 +3285,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1">
         <v>77740000</v>
@@ -3255,7 +3302,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>106799000</v>
@@ -3268,21 +3315,21 @@
         <v>473570000</v>
       </c>
       <c r="K12" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -3314,7 +3361,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.24299799904026365</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="60">
         <f>E67/E72</f>
         <v>0.42751727072713608</v>
       </c>
@@ -3324,16 +3371,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3341,7 +3388,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>169243000</v>
@@ -3353,16 +3400,16 @@
         <v>680578000</v>
       </c>
       <c r="K15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3370,7 +3417,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>208575000</v>
@@ -3386,17 +3433,17 @@
         <f>(E35+D35)/2</f>
         <v>0.17944553344566033</v>
       </c>
-      <c r="L16" s="60">
+      <c r="L16" s="59">
         <f>M101/E3</f>
-        <v>14.245159043912652</v>
-      </c>
-      <c r="M16" s="60">
+        <v>10.541720464542291</v>
+      </c>
+      <c r="M16" s="59">
         <f>M101/E28</f>
-        <v>-15.893883214186609</v>
-      </c>
-      <c r="N16" s="62">
-        <f>M101/E106</f>
-        <v>-28.908908682757062</v>
+        <v>-11.761811393157762</v>
+      </c>
+      <c r="N16" s="61">
+        <f>M101/E107</f>
+        <v>-21.393206866218339</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3404,7 +3451,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1">
         <v>1401000</v>
@@ -3421,7 +3468,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>2837000</v>
@@ -3434,13 +3481,13 @@
         <v>29721000</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3448,7 +3495,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10">
         <v>-112875000</v>
@@ -3463,33 +3510,33 @@
         <v>-148400000</v>
       </c>
       <c r="G19" s="27">
-        <v>-4756000</v>
+        <v>-28900000</v>
       </c>
       <c r="H19" s="27">
-        <v>139200000</v>
+        <v>86792000</v>
       </c>
       <c r="I19" s="27">
-        <v>264300000</v>
+        <v>134600000</v>
       </c>
       <c r="J19" s="27">
-        <v>433800000</v>
+        <v>243900000</v>
       </c>
       <c r="K19" s="26">
         <f>E40-E56-E61</f>
         <v>623525000</v>
       </c>
-      <c r="L19" s="60">
+      <c r="L19" s="59">
         <f>M101/F3</f>
-        <v>9.4708771653543309</v>
-      </c>
-      <c r="M19" s="63">
+        <v>7.479820174789916</v>
+      </c>
+      <c r="M19" s="62">
         <f>M101/F28</f>
-        <v>-41.079282786885244</v>
+        <v>-30.39954237704918</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3509,19 +3556,19 @@
       </c>
       <c r="G20" s="16">
         <f t="shared" si="6"/>
-        <v>-0.96795148247978435</v>
+        <v>-0.80525606469002697</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="6"/>
-        <v>-30.26829268292683</v>
+        <v>-4.0031833910034607</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="6"/>
-        <v>0.8987068965517242</v>
+        <v>0.55083417826527792</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="6"/>
-        <v>0.6413166855845629</v>
+        <v>0.81203566121842496</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3529,7 +3576,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>-1.2130000000000001</v>
@@ -3541,25 +3588,25 @@
         <f>E19/E3</f>
         <v>-0.91020870294353817</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="65">
         <f t="shared" ref="F21:J21" si="7">F19/F3</f>
-        <v>-0.23370078740157479</v>
-      </c>
-      <c r="G21" s="66">
+        <v>-0.24941176470588236</v>
+      </c>
+      <c r="G21" s="65">
         <f t="shared" si="7"/>
-        <v>-5.1978142076502731E-3</v>
-      </c>
-      <c r="H21" s="66">
+        <v>-3.6229158831640969E-2</v>
+      </c>
+      <c r="H21" s="65">
         <f t="shared" si="7"/>
-        <v>0.11144915932746197</v>
-      </c>
-      <c r="I21" s="66">
+        <v>7.8261496844003603E-2</v>
+      </c>
+      <c r="I21" s="65">
         <f t="shared" si="7"/>
-        <v>0.16155256723716382</v>
-      </c>
-      <c r="J21" s="66">
+        <v>0.10330007674597083</v>
+      </c>
+      <c r="J21" s="65">
         <f t="shared" si="7"/>
-        <v>0.2120234604105572</v>
+        <v>0.15329981143934632</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3567,7 +3614,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10">
         <v>-115519000</v>
@@ -3584,7 +3631,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2">
         <v>-1.2414000000000001</v>
@@ -3602,7 +3649,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>-1594000</v>
@@ -3619,7 +3666,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10">
         <v>-117113000</v>
@@ -3636,7 +3683,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2">
         <v>-1.2585</v>
@@ -3654,7 +3701,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>460000</v>
@@ -3671,7 +3718,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11">
         <v>-117573000</v>
@@ -3682,25 +3729,25 @@
       <c r="E28" s="11">
         <v>-378385000</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="63">
         <v>-146400000</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="63">
         <v>-10510000</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="63">
         <v>92695000</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="63">
         <v>172000000</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="63">
         <v>326000000</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3740,7 +3787,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2">
         <v>-1.2635000000000001</v>
@@ -3752,25 +3799,25 @@
         <f>E28/E3</f>
         <v>-0.89626674941197926</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="64">
         <f t="shared" ref="F30:J30" si="9">F28/F3</f>
-        <v>-0.2305511811023622</v>
-      </c>
-      <c r="G30" s="65">
+        <v>-0.24605042016806722</v>
+      </c>
+      <c r="G30" s="64">
         <f t="shared" si="9"/>
-        <v>-1.1486338797814208E-2</v>
-      </c>
-      <c r="H30" s="65">
+        <v>-1.3175379215243825E-2</v>
+      </c>
+      <c r="H30" s="64">
         <f t="shared" si="9"/>
-        <v>7.421537229783827E-2</v>
-      </c>
-      <c r="I30" s="65">
+        <v>8.3584310189359787E-2</v>
+      </c>
+      <c r="I30" s="64">
         <f t="shared" si="9"/>
-        <v>0.10513447432762836</v>
-      </c>
-      <c r="J30" s="65">
+        <v>0.13200306983883345</v>
+      </c>
+      <c r="J30" s="64">
         <f t="shared" si="9"/>
-        <v>0.15933528836754643</v>
+        <v>0.20490257699560024</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3778,7 +3825,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12">
         <v>-0.57999999999999996</v>
@@ -3795,7 +3842,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12">
         <v>-0.57999999999999996</v>
@@ -3812,7 +3859,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1">
         <v>204433503</v>
@@ -3829,7 +3876,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1">
         <v>204433503</v>
@@ -3843,7 +3890,7 @@
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -3865,16 +3912,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -3882,16 +3929,16 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -3899,7 +3946,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>395472000</v>
@@ -3916,7 +3963,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>364000</v>
@@ -3933,7 +3980,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>395836000</v>
@@ -3951,7 +3998,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>39315000</v>
@@ -3968,16 +4015,16 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -3985,7 +4032,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>28906000</v>
@@ -4002,7 +4049,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>464057000</v>
@@ -4019,7 +4066,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>31399000</v>
@@ -4036,10 +4083,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1">
         <v>108193000</v>
@@ -4053,7 +4100,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>470000</v>
@@ -4070,7 +4117,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>470000</v>
@@ -4087,16 +4134,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4104,16 +4151,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4121,7 +4168,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>24634000</v>
@@ -4138,7 +4185,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>56503000</v>
@@ -4155,16 +4202,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4172,7 +4219,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>520560000</v>
@@ -4189,7 +4236,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>11822000</v>
@@ -4206,7 +4253,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>3634000</v>
@@ -4223,16 +4270,16 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4240,7 +4287,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>89645000</v>
@@ -4257,7 +4304,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>23805000</v>
@@ -4274,7 +4321,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>128906000</v>
@@ -4291,7 +4338,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1">
         <v>38460000</v>
@@ -4308,7 +4355,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>52190000</v>
@@ -4325,16 +4372,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4342,7 +4389,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>621540000</v>
@@ -4359,7 +4406,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>712190000</v>
@@ -4376,16 +4423,16 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4393,7 +4440,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>841096000</v>
@@ -4410,7 +4457,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>2000</v>
@@ -4427,7 +4474,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-350572000</v>
@@ -4444,7 +4491,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>165000</v>
@@ -4461,7 +4508,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>29869000</v>
@@ -4478,7 +4525,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-320536000</v>
@@ -4495,7 +4542,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>520560000</v>
@@ -4512,16 +4559,16 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -4529,16 +4576,16 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4546,7 +4593,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>-117573000</v>
@@ -4563,7 +4610,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>2837000</v>
@@ -4580,16 +4627,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4597,7 +4644,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1">
         <v>15912000</v>
@@ -4611,7 +4658,7 @@
     </row>
     <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:E80" si="11">B79/B3</f>
@@ -4636,7 +4683,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>17673000</v>
@@ -4651,7 +4698,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1">
         <v>-8320000</v>
@@ -4668,19 +4715,19 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M83" s="70"/>
     </row>
@@ -4689,7 +4736,7 @@
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1">
         <v>7429000</v>
@@ -4701,7 +4748,7 @@
         <v>3670000</v>
       </c>
       <c r="L84" s="71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M84" s="72"/>
     </row>
@@ -4710,7 +4757,7 @@
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>22131000</v>
@@ -4720,7 +4767,7 @@
       </c>
       <c r="E85" s="1"/>
       <c r="L85" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M85" s="29">
         <f>E17</f>
@@ -4732,7 +4779,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>14581000</v>
@@ -4744,7 +4791,7 @@
         <v>-12217000</v>
       </c>
       <c r="L86" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M86" s="29">
         <f>E56</f>
@@ -4756,7 +4803,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10">
         <v>-66570000</v>
@@ -4768,7 +4815,7 @@
         <v>-193287000</v>
       </c>
       <c r="L87" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M87" s="29">
         <f>E61</f>
@@ -4780,7 +4827,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>-3283000</v>
@@ -4792,7 +4839,7 @@
         <v>-18812000</v>
       </c>
       <c r="L88" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M88" s="31">
         <v>0</v>
@@ -4800,7 +4847,7 @@
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:E89" si="12">(-1*B88)/B3</f>
@@ -4819,7 +4866,7 @@
         <v>4.4559298307116177E-2</v>
       </c>
       <c r="L89" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M89" s="29">
         <f>E27</f>
@@ -4831,10 +4878,10 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1">
         <v>-3449000</v>
@@ -4855,10 +4902,10 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-6000000</v>
@@ -4867,7 +4914,7 @@
         <v>925185000</v>
       </c>
       <c r="L91" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M91" s="31">
         <f>M89/M90</f>
@@ -4879,19 +4926,19 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M92" s="33">
         <f>M88*(1-M91)</f>
@@ -4903,7 +4950,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-2982000</v>
@@ -4913,7 +4960,7 @@
       </c>
       <c r="E93" s="1"/>
       <c r="L93" s="71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M93" s="72"/>
     </row>
@@ -4922,7 +4969,7 @@
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-6265000</v>
@@ -4934,10 +4981,11 @@
         <v>-1312666000</v>
       </c>
       <c r="L94" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M94" s="34">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4945,7 +4993,7 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1">
         <v>-20000000</v>
@@ -4957,11 +5005,11 @@
         <v>0</v>
       </c>
       <c r="L95" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M95" s="35" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.9359999999999999</v>
+        <v>1.8660000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4969,10 +5017,10 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>1388562000</v>
@@ -4981,7 +5029,7 @@
         <v>36494000</v>
       </c>
       <c r="L96" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M96" s="34">
         <v>8.4000000000000005E-2</v>
@@ -4992,23 +5040,23 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M97" s="33">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12429480000000001</v>
+        <v>0.12450282000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5016,19 +5064,19 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M98" s="72"/>
     </row>
@@ -5037,7 +5085,7 @@
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1">
         <v>443978000</v>
@@ -5049,7 +5097,7 @@
         <v>-186000</v>
       </c>
       <c r="L99" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M99" s="29">
         <f>M86+M87</f>
@@ -5061,7 +5109,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10">
         <v>423978000</v>
@@ -5073,7 +5121,7 @@
         <v>36308000</v>
       </c>
       <c r="L100" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M100" s="31">
         <f>M99/M103</f>
@@ -5085,7 +5133,7 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1">
         <v>289000</v>
@@ -5097,11 +5145,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M101" s="36" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6014007000</v>
+        <v>4450493004</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5109,7 +5157,7 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10">
         <v>351432000</v>
@@ -5121,7 +5169,7 @@
         <v>1469645000</v>
       </c>
       <c r="L102" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M102" s="31">
         <f>M101/M103</f>
@@ -5133,7 +5181,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1">
         <v>47680000</v>
@@ -5145,11 +5193,11 @@
         <v>1672051</v>
       </c>
       <c r="L103" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M103" s="37">
         <f>M99+M101</f>
-        <v>6014007000</v>
+        <v>4450493004</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5157,7 +5205,7 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11">
         <v>399112000</v>
@@ -5169,171 +5217,183 @@
         <v>202406000</v>
       </c>
       <c r="L104" s="71" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M104" s="72"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <v>0</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.45372417107160024</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.96476266031997882</v>
-      </c>
-      <c r="F105" s="58">
-        <v>-53000000</v>
-      </c>
-      <c r="G105" s="58">
-        <v>119000000</v>
-      </c>
-      <c r="H105" s="58">
-        <v>283000000</v>
-      </c>
-      <c r="I105" s="58">
-        <v>464000000</v>
-      </c>
-      <c r="J105" s="58">
-        <v>555000000</v>
-      </c>
-      <c r="K105" s="15"/>
+        <v>158</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:D105" si="13">(C22*(1-$M$91))+C77+C88+C81</f>
+        <v>-96603428.322543338</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="13"/>
+        <v>-203430799.40520522</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-$M$91))+E77+E88+E81</f>
+        <v>-385782440.4762525</v>
+      </c>
+      <c r="F105" s="40">
+        <f>E105*(1+$M$106)</f>
+        <v>-504312922.2387616</v>
+      </c>
+      <c r="G105" s="40">
+        <f t="shared" ref="G105:J105" si="14">F105*(1+$M$106)</f>
+        <v>-659261534.09943771</v>
+      </c>
+      <c r="H105" s="40">
+        <f t="shared" si="14"/>
+        <v>-861817635.79195988</v>
+      </c>
+      <c r="I105" s="40">
+        <f t="shared" si="14"/>
+        <v>-1126608483.8039646</v>
+      </c>
+      <c r="J105" s="40">
+        <f t="shared" si="14"/>
+        <v>-1472755514.7008622</v>
+      </c>
+      <c r="K105" s="41" t="s">
+        <v>161</v>
+      </c>
       <c r="L105" s="38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M105" s="39">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12429480000000001</v>
+        <v>0.12450282000000001</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-72835000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-105882000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-208033000</v>
-      </c>
-      <c r="F106" s="40">
-        <f>E106*(1+$M$106)</f>
-        <v>-285859504.60596913</v>
-      </c>
-      <c r="G106" s="40">
-        <f t="shared" ref="G106:J106" si="13">F106*(1+$M$106)</f>
-        <v>-392801413.11027622</v>
-      </c>
-      <c r="H106" s="40">
-        <f t="shared" si="13"/>
-        <v>-539750988.35390639</v>
-      </c>
-      <c r="I106" s="40">
-        <f t="shared" si="13"/>
-        <v>-741675359.87766325</v>
-      </c>
-      <c r="J106" s="40">
-        <f t="shared" si="13"/>
-        <v>-1019140958.1801095</v>
+      <c r="A106" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <v>0</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>0.45372417107160024</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>0.96476266031997882</v>
+      </c>
+      <c r="F106" s="57">
+        <v>-81510000</v>
+      </c>
+      <c r="G106" s="57">
+        <v>44775000</v>
+      </c>
+      <c r="H106" s="57">
+        <v>183200000</v>
+      </c>
+      <c r="I106" s="57">
+        <v>238700000</v>
+      </c>
+      <c r="J106" s="57">
+        <v>359500000</v>
       </c>
       <c r="K106" s="41" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L106" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M106" s="43">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.37410653408819339</v>
+        <v>0.30724695923480089</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="1"/>
+      <c r="A107" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-72835000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-105882000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-208033000</v>
+      </c>
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
       <c r="H107" s="41"/>
       <c r="I107" s="41"/>
-      <c r="J107" s="59">
-        <f>J105*(1+M107)/(M108-M107)</f>
-        <v>5729151979.7612753</v>
-      </c>
-      <c r="K107" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="L107" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="M107" s="47">
+      <c r="J107" s="58">
+        <f>J106*(1+M107)/(M108-M107)</f>
+        <v>3703287002.3181238</v>
+      </c>
+      <c r="K107" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="L107" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="M107" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="44">
-        <f t="shared" ref="F108:H108" si="14">F107+F106</f>
-        <v>-285859504.60596913</v>
-      </c>
-      <c r="G108" s="44">
-        <f t="shared" si="14"/>
-        <v>-392801413.11027622</v>
-      </c>
-      <c r="H108" s="44">
-        <f t="shared" si="14"/>
-        <v>-539750988.35390639</v>
-      </c>
-      <c r="I108" s="44">
-        <f>I107+I106</f>
-        <v>-741675359.87766325</v>
-      </c>
-      <c r="J108" s="59">
-        <f>J107+J105</f>
-        <v>6284151979.7612753</v>
-      </c>
-      <c r="K108" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="L108" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="M108" s="49">
+      <c r="F108" s="58">
+        <f t="shared" ref="F108:I108" si="15">F107+F106</f>
+        <v>-81510000</v>
+      </c>
+      <c r="G108" s="58">
+        <f t="shared" si="15"/>
+        <v>44775000</v>
+      </c>
+      <c r="H108" s="58">
+        <f t="shared" si="15"/>
+        <v>183200000</v>
+      </c>
+      <c r="I108" s="58">
+        <f t="shared" si="15"/>
+        <v>238700000</v>
+      </c>
+      <c r="J108" s="58">
+        <f>J107+J106</f>
+        <v>4062787002.3181238</v>
+      </c>
+      <c r="K108" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="L108" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="M108" s="48">
         <f>M105</f>
-        <v>0.12429480000000001</v>
+        <v>0.12450282000000001</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="F109" s="67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G109" s="68"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="50" t="s">
-        <v>152</v>
+      <c r="F110" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="G110" s="36">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2089215320.4734793</v>
+        <v>2500591249.6852427</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="50" t="s">
-        <v>153</v>
+      <c r="F111" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="G111" s="36">
         <f>E40</f>
@@ -5341,8 +5401,8 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="50" t="s">
-        <v>139</v>
+      <c r="F112" s="49" t="s">
+        <v>137</v>
       </c>
       <c r="G112" s="36">
         <f>M99</f>
@@ -5350,55 +5410,55 @@
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="50" t="s">
-        <v>154</v>
+      <c r="F113" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="G113" s="36">
         <f>G110+G111-G112</f>
-        <v>2712740320.4734793</v>
+        <v>3124116249.6852427</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="50" t="s">
+      <c r="F114" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="G114" s="50">
+        <f>E34*(1+(5*0.05))</f>
+        <v>347253576.25</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F115" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G115" s="52">
+        <f>G113/G114</f>
+        <v>8.9966424058829038</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F116" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G116" s="53" cm="1">
+        <f t="array" ref="G116">_FV(A1,"Price")</f>
+        <v>15.24</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F117" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="G117" s="55">
+        <f>G115/G116-1</f>
+        <v>-0.40966913347225042</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F118" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="G114" s="51" cm="1">
-        <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>291235200</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="G115" s="53">
-        <f>G113/G114</f>
-        <v>9.3146031814611678</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="G116" s="54" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>20.65</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="G117" s="56">
-        <f>G115/G116-1</f>
-        <v>-0.54892962801640832</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="G118" s="57" t="str">
+      <c r="G118" s="56" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5422,8 +5482,9 @@
     <hyperlink ref="E74" r:id="rId7" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{1D22E1A5-AED1-B946-BE91-8DEF993AEF75}"/>
     <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{D1B1AF4A-1754-5C40-89FA-4EB09B3A792F}"/>
     <hyperlink ref="F1" r:id="rId9" display="https://finbox.com/NYSE:S/explorer/revenue_proj" xr:uid="{A5E4CC53-B047-AF46-AC55-7997D2499D6B}"/>
+    <hyperlink ref="K106" r:id="rId10" xr:uid="{D898F9F4-5431-3849-A47F-46FB022D4D5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E03122-7760-2641-B4A4-860BCC6F1276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C90EC9-5EA2-324E-8230-F25CB86093B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -565,18 +565,28 @@
   </si>
   <si>
     <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -917,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1064,6 +1074,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2151,12 +2167,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2173,14 +2190,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2188,6 +2205,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2316,8 +2334,10 @@
     <v>30</v>
     <v>12.43</v>
     <v>1.8660000000000001</v>
-    <v>0.13</v>
-    <v>8.6040000000000005E-3</v>
+    <v>-0.52</v>
+    <v>-3.3656999999999999E-2</v>
+    <v>-0.01</v>
+    <v>-6.6980000000000002E-4</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
     <v>2200</v>
@@ -2325,24 +2345,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>15.63</v>
+    <v>15.54</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999400682813</v>
+    <v>45103.918384988283</v>
     <v>0</v>
-    <v>14.94</v>
-    <v>4450493004</v>
+    <v>14.84</v>
+    <v>4359964603</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>15.11</v>
+    <v>15.35</v>
     <v>0</v>
-    <v>15.11</v>
-    <v>15.24</v>
+    <v>15.45</v>
+    <v>14.93</v>
+    <v>14.92</v>
     <v>292027100</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>9242</v>
-    <v>11637354</v>
+    <v>6110743</v>
+    <v>11884919</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2374,6 +2395,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2394,6 +2417,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2410,7 +2434,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2421,13 +2445,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2493,13 +2520,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2544,6 +2577,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2551,6 +2587,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2912,10 +2951,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G125" sqref="G125"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3435,18 +3474,18 @@
       </c>
       <c r="L16" s="59">
         <f>M101/E3</f>
-        <v>10.541720464542291</v>
+        <v>10.327289142756982</v>
       </c>
       <c r="M16" s="59">
         <f>M101/E28</f>
-        <v>-11.761811393157762</v>
+        <v>-11.522561948808754</v>
       </c>
       <c r="N16" s="61">
         <f>M101/E107</f>
-        <v>-21.393206866218339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>-20.958043209490803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3463,7 +3502,7 @@
         <v>-1830000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3489,8 +3528,11 @@
       <c r="M18" s="20" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="N18" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3527,14 +3569,18 @@
       </c>
       <c r="L19" s="59">
         <f>M101/F3</f>
-        <v>7.479820174789916</v>
+        <v>7.327671601680672</v>
       </c>
       <c r="M19" s="62">
         <f>M101/F28</f>
-        <v>-30.39954237704918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-29.781178982240437</v>
+      </c>
+      <c r="N19" s="61">
+        <f>M101/F106</f>
+        <v>-53.489935014108696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>100</v>
       </c>
@@ -3571,7 +3617,7 @@
         <v>0.81203566121842496</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3608,8 +3654,14 @@
         <f t="shared" si="7"/>
         <v>0.15329981143934632</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="M21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3625,8 +3677,16 @@
       <c r="E22" s="10">
         <v>-402576000</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="M22" s="73">
+        <f>(-1*E98)/M101</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="74">
+        <f>E107/M101</f>
+        <v>-4.7714378198588328E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3644,7 +3704,7 @@
         <v>-0.95356708884146302</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3661,7 +3721,7 @@
         <v>-1293000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3678,7 +3738,7 @@
         <v>-383998000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3696,7 +3756,7 @@
         <v>-0.90956205780012744</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3713,7 +3773,7 @@
         <v>-5613000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3745,7 +3805,7 @@
         <v>326000000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>101</v>
       </c>
@@ -3782,7 +3842,7 @@
         <v>0.89534883720930236</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3820,7 +3880,7 @@
         <v>0.20490257699560024</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3837,7 +3897,7 @@
         <v>-1.36</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4985,7 +5045,7 @@
       </c>
       <c r="M94" s="34">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5056,7 +5116,7 @@
       </c>
       <c r="M97" s="33">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12450282000000001</v>
+        <v>0.12436426</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5072,8 +5132,8 @@
       <c r="D98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>91</v>
+      <c r="E98" s="1">
+        <v>0</v>
       </c>
       <c r="L98" s="71" t="s">
         <v>136</v>
@@ -5149,7 +5209,7 @@
       </c>
       <c r="M101" s="36" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4450493004</v>
+        <v>4359964603</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5197,7 +5257,7 @@
       </c>
       <c r="M103" s="37">
         <f>M99+M101</f>
-        <v>4450493004</v>
+        <v>4359964603</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5265,7 +5325,7 @@
       </c>
       <c r="M105" s="39">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12450282000000001</v>
+        <v>0.12436426</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5332,7 +5392,7 @@
       <c r="I107" s="41"/>
       <c r="J107" s="58">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>3703287002.3181238</v>
+        <v>3708451107.0680737</v>
       </c>
       <c r="K107" s="44" t="s">
         <v>145</v>
@@ -5363,7 +5423,7 @@
       </c>
       <c r="J108" s="58">
         <f>J107+J106</f>
-        <v>4062787002.3181238</v>
+        <v>4067951107.0680737</v>
       </c>
       <c r="K108" s="44" t="s">
         <v>141</v>
@@ -5373,7 +5433,7 @@
       </c>
       <c r="M108" s="48">
         <f>M105</f>
-        <v>0.12450282000000001</v>
+        <v>0.12436426</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5388,7 +5448,7 @@
       </c>
       <c r="G110" s="36">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2500591249.6852427</v>
+        <v>2504978714.0173163</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5415,7 +5475,7 @@
       </c>
       <c r="G113" s="36">
         <f>G110+G111-G112</f>
-        <v>3124116249.6852427</v>
+        <v>3128503714.0173163</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5433,7 +5493,7 @@
       </c>
       <c r="G115" s="52">
         <f>G113/G114</f>
-        <v>8.9966424058829038</v>
+        <v>9.0092771622458319</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5442,7 +5502,7 @@
       </c>
       <c r="G116" s="53" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>15.24</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5451,7 +5511,7 @@
       </c>
       <c r="G117" s="55">
         <f>G115/G116-1</f>
-        <v>-0.40966913347225042</v>
+        <v>-0.39656549482613312</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C90EC9-5EA2-324E-8230-F25CB86093B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BE8EC2-BC53-504C-B0A3-AA6EAEFA65BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -749,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -861,59 +861,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -927,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -978,64 +925,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1053,33 +946,68 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1131,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>S</a:t>
+              <a:t>SentinelOne</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1170,10 +1098,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1503259112478498E-2"/>
+          <c:x val="7.9450278980028155E-2"/>
           <c:y val="0.14021424261933194"/>
-          <c:w val="0.8715430985034156"/>
-          <c:h val="0.73774172917545433"/>
+          <c:w val="0.86359607863586585"/>
+          <c:h val="0.71619486794677145"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1467,6 +1395,7 @@
         <c:axId val="1424653648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-350000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2115,13 +2044,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2193,7 +2122,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2333,11 +2262,11 @@
     <v>Powered by Refinitiv</v>
     <v>30</v>
     <v>12.43</v>
-    <v>1.8660000000000001</v>
-    <v>-0.52</v>
-    <v>-3.3656999999999999E-2</v>
+    <v>1.8680000000000001</v>
+    <v>0.24</v>
+    <v>1.6150999999999999E-2</v>
     <v>-0.01</v>
-    <v>-6.6980000000000002E-4</v>
+    <v>-6.623E-4</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
     <v>2200</v>
@@ -2345,25 +2274,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>15.54</v>
+    <v>15.6</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45103.918384988283</v>
+    <v>45107.996368275002</v>
     <v>0</v>
-    <v>14.84</v>
-    <v>4359964603</v>
+    <v>15.02</v>
+    <v>4409609210</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>15.35</v>
+    <v>15.02</v>
     <v>0</v>
-    <v>15.45</v>
-    <v>14.93</v>
-    <v>14.92</v>
+    <v>14.86</v>
+    <v>15.1</v>
+    <v>15.09</v>
     <v>292027100</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>6110743</v>
-    <v>11884919</v>
+    <v>9353750</v>
+    <v>12158207</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2951,10 +2880,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3400,7 +3329,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.24299799904026365</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="34">
         <f>E67/E72</f>
         <v>0.42751727072713608</v>
       </c>
@@ -3472,17 +3401,17 @@
         <f>(E35+D35)/2</f>
         <v>0.17944553344566033</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="33">
         <f>M101/E3</f>
-        <v>10.327289142756982</v>
-      </c>
-      <c r="M16" s="59">
+        <v>10.444880512768281</v>
+      </c>
+      <c r="M16" s="33">
         <f>M101/E28</f>
-        <v>-11.522561948808754</v>
-      </c>
-      <c r="N16" s="61">
+        <v>-11.653763257000145</v>
+      </c>
+      <c r="N16" s="35">
         <f>M101/E107</f>
-        <v>-20.958043209490803</v>
+        <v>-21.196681343825258</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3567,17 +3496,17 @@
         <f>E40-E56-E61</f>
         <v>623525000</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="33">
         <f>M101/F3</f>
-        <v>7.327671601680672</v>
-      </c>
-      <c r="M19" s="62">
+        <v>7.4111079159663866</v>
+      </c>
+      <c r="M19" s="36">
         <f>M101/F28</f>
-        <v>-29.781178982240437</v>
-      </c>
-      <c r="N19" s="61">
+        <v>-30.12028148907104</v>
+      </c>
+      <c r="N19" s="35">
         <f>M101/F106</f>
-        <v>-53.489935014108696</v>
+        <v>-54.098996564838671</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3634,23 +3563,23 @@
         <f>E19/E3</f>
         <v>-0.91020870294353817</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="39">
         <f t="shared" ref="F21:J21" si="7">F19/F3</f>
         <v>-0.24941176470588236</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="39">
         <f t="shared" si="7"/>
         <v>-3.6229158831640969E-2</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="39">
         <f t="shared" si="7"/>
         <v>7.8261496844003603E-2</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="39">
         <f t="shared" si="7"/>
         <v>0.10330007674597083</v>
       </c>
-      <c r="J21" s="65">
+      <c r="J21" s="39">
         <f t="shared" si="7"/>
         <v>0.15329981143934632</v>
       </c>
@@ -3677,13 +3606,13 @@
       <c r="E22" s="10">
         <v>-402576000</v>
       </c>
-      <c r="M22" s="73">
+      <c r="M22" s="41">
         <f>(-1*E98)/M101</f>
         <v>0</v>
       </c>
-      <c r="N22" s="74">
+      <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-4.7714378198588328E-2</v>
+        <v>-4.7177196457279712E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3789,19 +3718,19 @@
       <c r="E28" s="11">
         <v>-378385000</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="37">
         <v>-146400000</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="37">
         <v>-10510000</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="37">
         <v>92695000</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="37">
         <v>172000000</v>
       </c>
-      <c r="J28" s="63">
+      <c r="J28" s="37">
         <v>326000000</v>
       </c>
     </row>
@@ -3859,23 +3788,23 @@
         <f>E28/E3</f>
         <v>-0.89626674941197926</v>
       </c>
-      <c r="F30" s="64">
+      <c r="F30" s="38">
         <f t="shared" ref="F30:J30" si="9">F28/F3</f>
         <v>-0.24605042016806722</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="38">
         <f t="shared" si="9"/>
         <v>-1.3175379215243825E-2</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="38">
         <f t="shared" si="9"/>
         <v>8.3584310189359787E-2</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="38">
         <f t="shared" si="9"/>
         <v>0.13200306983883345</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="38">
         <f t="shared" si="9"/>
         <v>0.20490257699560024</v>
       </c>
@@ -4786,10 +4715,10 @@
       <c r="E83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L83" s="69" t="s">
+      <c r="L83" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="M83" s="70"/>
+      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4807,10 +4736,10 @@
       <c r="E84" s="1">
         <v>3670000</v>
       </c>
-      <c r="L84" s="71" t="s">
+      <c r="L84" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="M84" s="72"/>
+      <c r="M84" s="67"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4826,10 +4755,10 @@
         <v>61577000</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="L85" s="28" t="s">
+      <c r="L85" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="M85" s="29">
+      <c r="M85" s="44">
         <f>E17</f>
         <v>-1830000</v>
       </c>
@@ -4850,10 +4779,10 @@
       <c r="E86" s="1">
         <v>-12217000</v>
       </c>
-      <c r="L86" s="28" t="s">
+      <c r="L86" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="M86" s="29">
+      <c r="M86" s="44">
         <f>E56</f>
         <v>0</v>
       </c>
@@ -4874,10 +4803,10 @@
       <c r="E87" s="10">
         <v>-193287000</v>
       </c>
-      <c r="L87" s="28" t="s">
+      <c r="L87" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="M87" s="29">
+      <c r="M87" s="44">
         <f>E61</f>
         <v>0</v>
       </c>
@@ -4898,10 +4827,10 @@
       <c r="E88" s="1">
         <v>-18812000</v>
       </c>
-      <c r="L88" s="30" t="s">
+      <c r="L88" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="M88" s="31">
+      <c r="M88" s="46">
         <v>0</v>
       </c>
     </row>
@@ -4925,10 +4854,10 @@
         <f t="shared" si="12"/>
         <v>4.4559298307116177E-2</v>
       </c>
-      <c r="L89" s="28" t="s">
+      <c r="L89" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="M89" s="29">
+      <c r="M89" s="44">
         <f>E27</f>
         <v>-5613000</v>
       </c>
@@ -4949,10 +4878,10 @@
       <c r="E90" s="1">
         <v>-281032000</v>
       </c>
-      <c r="L90" s="28" t="s">
+      <c r="L90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="29">
+      <c r="M90" s="44">
         <f>E25</f>
         <v>-383998000</v>
       </c>
@@ -4973,10 +4902,10 @@
       <c r="E91" s="1">
         <v>925185000</v>
       </c>
-      <c r="L91" s="30" t="s">
+      <c r="L91" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="M91" s="31">
+      <c r="M91" s="46">
         <f>M89/M90</f>
         <v>1.4617263631581414E-2</v>
       </c>
@@ -4997,10 +4926,10 @@
       <c r="E92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L92" s="32" t="s">
+      <c r="L92" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="M92" s="33">
+      <c r="M92" s="46">
         <f>M88*(1-M91)</f>
         <v>0</v>
       </c>
@@ -5019,10 +4948,10 @@
         <v>-6641000</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="L93" s="71" t="s">
+      <c r="L93" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="M93" s="72"/>
+      <c r="M93" s="67"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5040,12 +4969,12 @@
       <c r="E94" s="10">
         <v>-1312666000</v>
       </c>
-      <c r="L94" s="28" t="s">
+      <c r="L94" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="M94" s="34">
+      <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5064,12 +4993,12 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="L95" s="28" t="s">
+      <c r="L95" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="M95" s="35" cm="1">
+      <c r="M95" s="48" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.8660000000000001</v>
+        <v>1.8680000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5088,10 +5017,10 @@
       <c r="E96" s="1">
         <v>36494000</v>
       </c>
-      <c r="L96" s="28" t="s">
+      <c r="L96" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="M96" s="34">
+      <c r="M96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5111,12 +5040,12 @@
       <c r="E97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L97" s="32" t="s">
+      <c r="L97" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="M97" s="33">
+      <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12436426</v>
+        <v>0.12345928</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5135,10 +5064,10 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="L98" s="71" t="s">
+      <c r="L98" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="M98" s="72"/>
+      <c r="M98" s="67"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5156,10 +5085,10 @@
       <c r="E99" s="1">
         <v>-186000</v>
       </c>
-      <c r="L99" s="28" t="s">
+      <c r="L99" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="M99" s="29">
+      <c r="M99" s="44">
         <f>M86+M87</f>
         <v>0</v>
       </c>
@@ -5180,10 +5109,10 @@
       <c r="E100" s="10">
         <v>36308000</v>
       </c>
-      <c r="L100" s="30" t="s">
+      <c r="L100" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="M100" s="31">
+      <c r="M100" s="46">
         <f>M99/M103</f>
         <v>0</v>
       </c>
@@ -5204,12 +5133,12 @@
       <c r="E101" s="1">
         <v>0</v>
       </c>
-      <c r="L101" s="28" t="s">
+      <c r="L101" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="M101" s="36" cm="1">
+      <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4359964603</v>
+        <v>4409609210</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5228,10 +5157,10 @@
       <c r="E102" s="10">
         <v>1469645000</v>
       </c>
-      <c r="L102" s="30" t="s">
+      <c r="L102" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="M102" s="31">
+      <c r="M102" s="46">
         <f>M101/M103</f>
         <v>1</v>
       </c>
@@ -5252,12 +5181,12 @@
       <c r="E103" s="1">
         <v>1672051</v>
       </c>
-      <c r="L103" s="32" t="s">
+      <c r="L103" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="M103" s="37">
+      <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>4359964603</v>
+        <v>4409609210</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5276,10 +5205,10 @@
       <c r="E104" s="11">
         <v>202406000</v>
       </c>
-      <c r="L104" s="71" t="s">
+      <c r="L104" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="M104" s="72"/>
+      <c r="M104" s="67"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5297,35 +5226,35 @@
         <f>(E22*(1-$M$91))+E77+E88+E81</f>
         <v>-385782440.4762525</v>
       </c>
-      <c r="F105" s="40">
+      <c r="F105" s="28">
         <f>E105*(1+$M$106)</f>
         <v>-504312922.2387616</v>
       </c>
-      <c r="G105" s="40">
+      <c r="G105" s="28">
         <f t="shared" ref="G105:J105" si="14">F105*(1+$M$106)</f>
         <v>-659261534.09943771</v>
       </c>
-      <c r="H105" s="40">
+      <c r="H105" s="28">
         <f t="shared" si="14"/>
         <v>-861817635.79195988</v>
       </c>
-      <c r="I105" s="40">
+      <c r="I105" s="28">
         <f t="shared" si="14"/>
         <v>-1126608483.8039646</v>
       </c>
-      <c r="J105" s="40">
+      <c r="J105" s="28">
         <f t="shared" si="14"/>
         <v>-1472755514.7008622</v>
       </c>
-      <c r="K105" s="41" t="s">
+      <c r="K105" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="L105" s="38" t="s">
+      <c r="L105" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="M105" s="39">
+      <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12436426</v>
+        <v>0.12345928</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5344,34 +5273,34 @@
         <f>(E107/D107)-1</f>
         <v>0.96476266031997882</v>
       </c>
-      <c r="F106" s="57">
+      <c r="F106" s="31">
         <v>-81510000</v>
       </c>
-      <c r="G106" s="57">
+      <c r="G106" s="31">
         <v>44775000</v>
       </c>
-      <c r="H106" s="57">
+      <c r="H106" s="31">
         <v>183200000</v>
       </c>
-      <c r="I106" s="57">
+      <c r="I106" s="31">
         <v>238700000</v>
       </c>
-      <c r="J106" s="57">
+      <c r="J106" s="31">
         <v>359500000</v>
       </c>
-      <c r="K106" s="41" t="s">
+      <c r="K106" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="L106" s="42" t="s">
+      <c r="L106" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="M106" s="43">
+      <c r="M106" s="54">
         <f>(SUM(F4:J4)/5)</f>
         <v>0.30724695923480089</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="66" t="s">
+      <c r="A107" s="40" t="s">
         <v>160</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -5386,139 +5315,139 @@
       <c r="E107" s="1">
         <v>-208033000</v>
       </c>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="58">
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="32">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>3708451107.0680737</v>
-      </c>
-      <c r="K107" s="44" t="s">
+        <v>3742537016.317811</v>
+      </c>
+      <c r="K107" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="L107" s="45" t="s">
+      <c r="L107" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="M107" s="46">
+      <c r="M107" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="58">
+      <c r="F108" s="32">
         <f t="shared" ref="F108:I108" si="15">F107+F106</f>
         <v>-81510000</v>
       </c>
-      <c r="G108" s="58">
+      <c r="G108" s="32">
         <f t="shared" si="15"/>
         <v>44775000</v>
       </c>
-      <c r="H108" s="58">
+      <c r="H108" s="32">
         <f t="shared" si="15"/>
         <v>183200000</v>
       </c>
-      <c r="I108" s="58">
+      <c r="I108" s="32">
         <f t="shared" si="15"/>
         <v>238700000</v>
       </c>
-      <c r="J108" s="58">
+      <c r="J108" s="32">
         <f>J107+J106</f>
-        <v>4067951107.0680737</v>
-      </c>
-      <c r="K108" s="44" t="s">
+        <v>4102037016.317811</v>
+      </c>
+      <c r="K108" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="L108" s="47" t="s">
+      <c r="L108" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="M108" s="48">
+      <c r="M108" s="54">
         <f>M105</f>
-        <v>0.12436426</v>
+        <v>0.12345928</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="67" t="s">
+      <c r="F109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="G109" s="68"/>
+      <c r="G109" s="64"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="49" t="s">
+      <c r="F110" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="G110" s="36">
+      <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2504978714.0173163</v>
+        <v>2533948805.1656733</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="49" t="s">
+      <c r="F111" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="G111" s="36">
+      <c r="G111" s="49">
         <f>E40</f>
         <v>623525000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="49" t="s">
+      <c r="F112" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="G112" s="36">
+      <c r="G112" s="49">
         <f>M99</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="49" t="s">
+      <c r="F113" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="G113" s="36">
+      <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>3128503714.0173163</v>
+        <v>3157473805.1656733</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="49" t="s">
+      <c r="F114" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="G114" s="50">
+      <c r="G114" s="58">
         <f>E34*(1+(5*0.05))</f>
         <v>347253576.25</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="51" t="s">
+      <c r="F115" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G115" s="52">
+      <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>9.0092771622458319</v>
+        <v>9.0927034913889475</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="49" t="s">
+      <c r="F116" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="G116" s="53" cm="1">
+      <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>14.93</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="54" t="s">
+      <c r="F117" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="G117" s="55">
+      <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>-0.39656549482613312</v>
+        <v>-0.39783420586828155</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="54" t="s">
+      <c r="F118" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="G118" s="56" t="str">
+      <c r="G118" s="63" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BE8EC2-BC53-504C-B0A3-AA6EAEFA65BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99FA17C-34EF-BB4A-A2A4-8E8985D5B676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,9 +426,6 @@
     <t>Debt to Equity</t>
   </si>
   <si>
-    <t>Share Dilution (5yr)</t>
-  </si>
-  <si>
     <t>P/S</t>
   </si>
   <si>
@@ -574,6 +571,9 @@
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Share Dilution (2yr)</t>
   </si>
 </sst>
 </file>
@@ -2087,7 +2087,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2101,10 +2100,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2118,14 +2119,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2135,6 +2136,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2262,11 +2264,11 @@
     <v>Powered by Refinitiv</v>
     <v>30</v>
     <v>12.43</v>
-    <v>1.8680000000000001</v>
-    <v>0.24</v>
-    <v>1.6150999999999999E-2</v>
-    <v>-0.01</v>
-    <v>-6.623E-4</v>
+    <v>1.8620000000000001</v>
+    <v>-0.12</v>
+    <v>-8.3280000000000003E-3</v>
+    <v>0.06</v>
+    <v>4.1989999999999996E-3</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
     <v>2200</v>
@@ -2274,25 +2276,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>15.6</v>
+    <v>14.66</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.996368275002</v>
+    <v>45114.999832233596</v>
     <v>0</v>
-    <v>15.02</v>
-    <v>4409609210</v>
+    <v>14.195</v>
+    <v>4173068000</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>15.02</v>
+    <v>14.42</v>
     <v>0</v>
-    <v>14.86</v>
-    <v>15.1</v>
-    <v>15.09</v>
+    <v>14.41</v>
+    <v>14.29</v>
+    <v>14.35</v>
     <v>292027100</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>9353750</v>
-    <v>12158207</v>
+    <v>5851431</v>
+    <v>12255790</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2880,10 +2882,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F103" sqref="F103"/>
+      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3368,16 +3370,16 @@
         <v>680578000</v>
       </c>
       <c r="K15" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="M15" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3403,15 +3405,15 @@
       </c>
       <c r="L16" s="33">
         <f>M101/E3</f>
-        <v>10.444880512768281</v>
+        <v>9.8845939755411809</v>
       </c>
       <c r="M16" s="33">
         <f>M101/E28</f>
-        <v>-11.653763257000145</v>
+        <v>-11.028629570411089</v>
       </c>
       <c r="N16" s="35">
         <f>M101/E107</f>
-        <v>-21.196681343825258</v>
+        <v>-20.059644383343027</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3449,16 +3451,16 @@
         <v>29721000</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L18" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>157</v>
-      </c>
       <c r="N18" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3498,15 +3500,15 @@
       </c>
       <c r="L19" s="33">
         <f>M101/F3</f>
-        <v>7.4111079159663866</v>
+        <v>7.0135596638655464</v>
       </c>
       <c r="M19" s="36">
         <f>M101/F28</f>
-        <v>-30.12028148907104</v>
+        <v>-28.504562841530056</v>
       </c>
       <c r="N19" s="35">
         <f>M101/F106</f>
-        <v>-54.098996564838671</v>
+        <v>-51.197006502269659</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3584,10 +3586,10 @@
         <v>0.15329981143934632</v>
       </c>
       <c r="M21" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3612,7 +3614,7 @@
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-4.7177196457279712E-2</v>
+        <v>-4.9851332401005685E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4716,7 +4718,7 @@
         <v>91</v>
       </c>
       <c r="L83" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M83" s="66"/>
     </row>
@@ -4737,7 +4739,7 @@
         <v>3670000</v>
       </c>
       <c r="L84" s="67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M84" s="67"/>
     </row>
@@ -4756,7 +4758,7 @@
       </c>
       <c r="E85" s="1"/>
       <c r="L85" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M85" s="44">
         <f>E17</f>
@@ -4780,7 +4782,7 @@
         <v>-12217000</v>
       </c>
       <c r="L86" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M86" s="44">
         <f>E56</f>
@@ -4804,7 +4806,7 @@
         <v>-193287000</v>
       </c>
       <c r="L87" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M87" s="44">
         <f>E61</f>
@@ -4828,7 +4830,7 @@
         <v>-18812000</v>
       </c>
       <c r="L88" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M88" s="46">
         <v>0</v>
@@ -4855,7 +4857,7 @@
         <v>4.4559298307116177E-2</v>
       </c>
       <c r="L89" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M89" s="44">
         <f>E27</f>
@@ -4903,7 +4905,7 @@
         <v>925185000</v>
       </c>
       <c r="L91" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M91" s="46">
         <f>M89/M90</f>
@@ -4927,7 +4929,7 @@
         <v>91</v>
       </c>
       <c r="L92" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M92" s="46">
         <f>M88*(1-M91)</f>
@@ -4949,7 +4951,7 @@
       </c>
       <c r="E93" s="1"/>
       <c r="L93" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M93" s="67"/>
     </row>
@@ -4970,11 +4972,11 @@
         <v>-1312666000</v>
       </c>
       <c r="L94" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4994,11 +4996,11 @@
         <v>0</v>
       </c>
       <c r="L95" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M95" s="48" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.8680000000000001</v>
+        <v>1.8620000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5018,7 +5020,7 @@
         <v>36494000</v>
       </c>
       <c r="L96" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M96" s="47">
         <v>8.4000000000000005E-2</v>
@@ -5041,11 +5043,11 @@
         <v>91</v>
       </c>
       <c r="L97" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12345928</v>
+        <v>0.12157458000000002</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5065,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M98" s="67"/>
     </row>
@@ -5086,7 +5088,7 @@
         <v>-186000</v>
       </c>
       <c r="L99" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M99" s="44">
         <f>M86+M87</f>
@@ -5110,7 +5112,7 @@
         <v>36308000</v>
       </c>
       <c r="L100" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M100" s="46">
         <f>M99/M103</f>
@@ -5134,11 +5136,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4409609210</v>
+        <v>4173068000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5158,7 +5160,7 @@
         <v>1469645000</v>
       </c>
       <c r="L102" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M102" s="46">
         <f>M101/M103</f>
@@ -5182,11 +5184,11 @@
         <v>1672051</v>
       </c>
       <c r="L103" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>4409609210</v>
+        <v>4173068000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5206,13 +5208,13 @@
         <v>202406000</v>
       </c>
       <c r="L104" s="67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M104" s="67"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C105" s="1">
         <f t="shared" ref="C105:D105" si="13">(C22*(1-$M$91))+C77+C88+C81</f>
@@ -5247,19 +5249,19 @@
         <v>-1472755514.7008622</v>
       </c>
       <c r="K105" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L105" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12345928</v>
+        <v>0.12157458000000002</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
@@ -5289,10 +5291,10 @@
         <v>359500000</v>
       </c>
       <c r="K106" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L106" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M106" s="54">
         <f>(SUM(F4:J4)/5)</f>
@@ -5301,7 +5303,7 @@
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>91</v>
@@ -5321,13 +5323,13 @@
       <c r="I107" s="29"/>
       <c r="J107" s="32">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>3742537016.317811</v>
+        <v>3815574450.3367229</v>
       </c>
       <c r="K107" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L107" s="55" t="s">
         <v>145</v>
-      </c>
-      <c r="L107" s="55" t="s">
-        <v>146</v>
       </c>
       <c r="M107" s="56">
         <v>2.5000000000000001E-2</v>
@@ -5352,37 +5354,37 @@
       </c>
       <c r="J108" s="32">
         <f>J107+J106</f>
-        <v>4102037016.317811</v>
+        <v>4175074450.3367229</v>
       </c>
       <c r="K108" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L108" s="57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M108" s="54">
         <f>M105</f>
-        <v>0.12345928</v>
+        <v>0.12157458000000002</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="F109" s="64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G109" s="64"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2533948805.1656733</v>
+        <v>2596083820.9222975</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F111" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G111" s="49">
         <f>E40</f>
@@ -5391,7 +5393,7 @@
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F112" s="58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G112" s="49">
         <f>M99</f>
@@ -5400,16 +5402,16 @@
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F113" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>3157473805.1656733</v>
+        <v>3219608820.9222975</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F114" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G114" s="58">
         <f>E34*(1+(5*0.05))</f>
@@ -5418,34 +5420,34 @@
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F115" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>9.0927034913889475</v>
+        <v>9.2716361792178876</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F116" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>15.1</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F117" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>-0.39783420586828155</v>
+        <v>-0.35118011342072164</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F118" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G118" s="63" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>

--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99FA17C-34EF-BB4A-A2A4-8E8985D5B676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7273EF3-0361-DA48-B297-B59C6DAB16CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2085,8 +2085,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2095,21 +2094,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2119,24 +2119,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2265,10 +2253,8 @@
     <v>30</v>
     <v>12.43</v>
     <v>1.8620000000000001</v>
-    <v>-0.12</v>
-    <v>-8.3280000000000003E-3</v>
-    <v>0.06</v>
-    <v>4.1989999999999996E-3</v>
+    <v>0.3</v>
+    <v>2.0994000000000002E-2</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
     <v>2200</v>
@@ -2276,25 +2262,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>14.66</v>
+    <v>14.7</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.999832233596</v>
+    <v>45117.992030034373</v>
     <v>0</v>
-    <v>14.195</v>
-    <v>4173068000</v>
+    <v>14.08</v>
+    <v>4260675389</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>14.42</v>
+    <v>14.14</v>
     <v>0</v>
-    <v>14.41</v>
     <v>14.29</v>
-    <v>14.35</v>
+    <v>14.59</v>
     <v>292027100</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>5851431</v>
-    <v>12255790</v>
+    <v>15</v>
+    <v>12113017</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2326,8 +2311,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2348,7 +2331,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2365,7 +2347,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2376,16 +2358,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2451,19 +2430,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2508,9 +2481,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2518,9 +2488,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2885,7 +2852,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomRight" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2979,10 +2946,10 @@
         <v>595000000</v>
       </c>
       <c r="G3" s="24">
-        <v>797700000</v>
+        <v>779000000</v>
       </c>
       <c r="H3" s="24">
-        <v>1109000000</v>
+        <v>1022000000</v>
       </c>
       <c r="I3" s="24">
         <v>1303000000</v>
@@ -3025,15 +2992,15 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.34067226890756297</v>
+        <v>0.30924369747899161</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4" si="1">(H3/G3)-1</f>
-        <v>0.3902469600100289</v>
+        <v>0.31193838254172013</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" ref="I4" si="2">(I3/H3)-1</f>
-        <v>0.17493237150586105</v>
+        <v>0.27495107632093929</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" ref="J4" si="3">(J3/I3)-1</f>
@@ -3405,15 +3372,15 @@
       </c>
       <c r="L16" s="33">
         <f>M101/E3</f>
-        <v>9.8845939755411809</v>
+        <v>10.092106402734386</v>
       </c>
       <c r="M16" s="33">
         <f>M101/E28</f>
-        <v>-11.028629570411089</v>
+        <v>-11.260159332425967</v>
       </c>
       <c r="N16" s="35">
         <f>M101/E107</f>
-        <v>-20.059644383343027</v>
+        <v>-20.480766940821887</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3480,19 +3447,19 @@
         <v>-384271000</v>
       </c>
       <c r="F19" s="27">
-        <v>-148400000</v>
+        <v>-152300000</v>
       </c>
       <c r="G19" s="27">
         <v>-28900000</v>
       </c>
       <c r="H19" s="27">
-        <v>86792000</v>
+        <v>95000000</v>
       </c>
       <c r="I19" s="27">
-        <v>134600000</v>
+        <v>186200000</v>
       </c>
       <c r="J19" s="27">
-        <v>243900000</v>
+        <v>307000000</v>
       </c>
       <c r="K19" s="26">
         <f>E40-E56-E61</f>
@@ -3500,15 +3467,15 @@
       </c>
       <c r="L19" s="33">
         <f>M101/F3</f>
-        <v>7.0135596638655464</v>
+        <v>7.1607989731092436</v>
       </c>
       <c r="M19" s="36">
         <f>M101/F28</f>
-        <v>-28.504562841530056</v>
+        <v>-33.364725050900546</v>
       </c>
       <c r="N19" s="35">
         <f>M101/F106</f>
-        <v>-51.197006502269659</v>
+        <v>-53.006001281397346</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3529,23 +3496,23 @@
       </c>
       <c r="F20" s="16">
         <f t="shared" ref="F20:J20" si="6">(F19/E19)-1</f>
-        <v>-0.61381420924295615</v>
+        <v>-0.60366512175001497</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="6"/>
-        <v>-0.80525606469002697</v>
+        <v>-0.81024294156270515</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="6"/>
-        <v>-4.0031833910034607</v>
+        <v>-4.2871972318339102</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="6"/>
-        <v>0.55083417826527792</v>
+        <v>0.96</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="6"/>
-        <v>0.81203566121842496</v>
+        <v>0.64876476906552094</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -3567,23 +3534,23 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" ref="F21:J21" si="7">F19/F3</f>
-        <v>-0.24941176470588236</v>
+        <v>-0.25596638655462184</v>
       </c>
       <c r="G21" s="39">
         <f t="shared" si="7"/>
-        <v>-3.6229158831640969E-2</v>
+        <v>-3.7098844672657255E-2</v>
       </c>
       <c r="H21" s="39">
         <f t="shared" si="7"/>
-        <v>7.8261496844003603E-2</v>
+        <v>9.2954990215264183E-2</v>
       </c>
       <c r="I21" s="39">
         <f t="shared" si="7"/>
-        <v>0.10330007674597083</v>
+        <v>0.14290099769762088</v>
       </c>
       <c r="J21" s="39">
         <f t="shared" si="7"/>
-        <v>0.15329981143934632</v>
+        <v>0.19296040226272784</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>164</v>
@@ -3614,7 +3581,7 @@
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-4.9851332401005685E-2</v>
+        <v>-4.8826296539062626E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3721,19 +3688,19 @@
         <v>-378385000</v>
       </c>
       <c r="F28" s="37">
-        <v>-146400000</v>
+        <v>-127700000</v>
       </c>
       <c r="G28" s="37">
-        <v>-10510000</v>
+        <v>-3100000</v>
       </c>
       <c r="H28" s="37">
-        <v>92695000</v>
+        <v>99640000</v>
       </c>
       <c r="I28" s="37">
-        <v>172000000</v>
+        <v>141500000</v>
       </c>
       <c r="J28" s="37">
-        <v>326000000</v>
+        <v>280600000</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3754,23 +3721,23 @@
       </c>
       <c r="F29" s="16">
         <f t="shared" ref="F29:J29" si="8">(F28/E28)-1</f>
-        <v>-0.61309248516722392</v>
+        <v>-0.66251304887878748</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" si="8"/>
-        <v>-0.92821038251366117</v>
+        <v>-0.97572435395458101</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="8"/>
-        <v>-9.8196955280685057</v>
+        <v>-33.141935483870967</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="8"/>
-        <v>0.85554776417282485</v>
+        <v>0.42011240465676436</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="8"/>
-        <v>0.89534883720930236</v>
+        <v>0.98303886925795059</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3792,23 +3759,23 @@
       </c>
       <c r="F30" s="38">
         <f t="shared" ref="F30:J30" si="9">F28/F3</f>
-        <v>-0.24605042016806722</v>
+        <v>-0.2146218487394958</v>
       </c>
       <c r="G30" s="38">
         <f t="shared" si="9"/>
-        <v>-1.3175379215243825E-2</v>
+        <v>-3.9794608472400513E-3</v>
       </c>
       <c r="H30" s="38">
         <f t="shared" si="9"/>
-        <v>8.3584310189359787E-2</v>
+        <v>9.749510763209393E-2</v>
       </c>
       <c r="I30" s="38">
         <f t="shared" si="9"/>
-        <v>0.13200306983883345</v>
+        <v>0.10859554873369148</v>
       </c>
       <c r="J30" s="38">
         <f t="shared" si="9"/>
-        <v>0.20490257699560024</v>
+        <v>0.17636706473915775</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3826,6 +3793,21 @@
       </c>
       <c r="E31" s="12">
         <v>-1.36</v>
+      </c>
+      <c r="F31" s="12">
+        <v>-0.44</v>
+      </c>
+      <c r="G31" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0.96</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4976,7 +4958,7 @@
       </c>
       <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5047,7 +5029,7 @@
       </c>
       <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12157458000000002</v>
+        <v>0.12151424000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5140,7 +5122,7 @@
       </c>
       <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4173068000</v>
+        <v>4260675389</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5188,7 +5170,7 @@
       </c>
       <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>4173068000</v>
+        <v>4260675389</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5230,23 +5212,23 @@
       </c>
       <c r="F105" s="28">
         <f>E105*(1+$M$106)</f>
-        <v>-504312922.2387616</v>
+        <v>-503563081.22365969</v>
       </c>
       <c r="G105" s="28">
         <f t="shared" ref="G105:J105" si="14">F105*(1+$M$106)</f>
-        <v>-659261534.09943771</v>
+        <v>-657302536.78322971</v>
       </c>
       <c r="H105" s="28">
         <f t="shared" si="14"/>
-        <v>-861817635.79195988</v>
+        <v>-857979150.91748691</v>
       </c>
       <c r="I105" s="28">
         <f t="shared" si="14"/>
-        <v>-1126608483.8039646</v>
+        <v>-1119922991.6434324</v>
       </c>
       <c r="J105" s="28">
         <f t="shared" si="14"/>
-        <v>-1472755514.7008622</v>
+        <v>-1461839143.6089759</v>
       </c>
       <c r="K105" s="29" t="s">
         <v>160</v>
@@ -5256,7 +5238,7 @@
       </c>
       <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12157458000000002</v>
+        <v>0.12151424000000001</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5276,19 +5258,19 @@
         <v>0.96476266031997882</v>
       </c>
       <c r="F106" s="31">
-        <v>-81510000</v>
+        <v>-80381000</v>
       </c>
       <c r="G106" s="31">
-        <v>44775000</v>
+        <v>59000000</v>
       </c>
       <c r="H106" s="31">
-        <v>183200000</v>
+        <v>190300000</v>
       </c>
       <c r="I106" s="31">
-        <v>238700000</v>
+        <v>280400000</v>
       </c>
       <c r="J106" s="31">
-        <v>359500000</v>
+        <v>398000000</v>
       </c>
       <c r="K106" s="29" t="s">
         <v>161</v>
@@ -5298,7 +5280,7 @@
       </c>
       <c r="M106" s="54">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.30724695923480089</v>
+        <v>0.30530327041844052</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5323,7 +5305,7 @@
       <c r="I107" s="29"/>
       <c r="J107" s="32">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>3815574450.3367229</v>
+        <v>4226837407.6198492</v>
       </c>
       <c r="K107" s="30" t="s">
         <v>144</v>
@@ -5338,23 +5320,23 @@
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="F108" s="32">
         <f t="shared" ref="F108:I108" si="15">F107+F106</f>
-        <v>-81510000</v>
+        <v>-80381000</v>
       </c>
       <c r="G108" s="32">
         <f t="shared" si="15"/>
-        <v>44775000</v>
+        <v>59000000</v>
       </c>
       <c r="H108" s="32">
         <f t="shared" si="15"/>
-        <v>183200000</v>
+        <v>190300000</v>
       </c>
       <c r="I108" s="32">
         <f t="shared" si="15"/>
-        <v>238700000</v>
+        <v>280400000</v>
       </c>
       <c r="J108" s="32">
         <f>J107+J106</f>
-        <v>4175074450.3367229</v>
+        <v>4624837407.6198492</v>
       </c>
       <c r="K108" s="30" t="s">
         <v>140</v>
@@ -5364,7 +5346,7 @@
       </c>
       <c r="M108" s="54">
         <f>M105</f>
-        <v>0.12157458000000002</v>
+        <v>0.12151424000000001</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5379,7 +5361,7 @@
       </c>
       <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2596083820.9222975</v>
+        <v>2893967050.8797159</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5406,7 +5388,7 @@
       </c>
       <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>3219608820.9222975</v>
+        <v>3517492050.8797159</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5424,7 +5406,7 @@
       </c>
       <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>9.2716361792178876</v>
+        <v>10.12946242012883</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5433,7 +5415,7 @@
       </c>
       <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>14.29</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5442,7 +5424,7 @@
       </c>
       <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>-0.35118011342072164</v>
+        <v>-0.30572567374031323</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7273EF3-0361-DA48-B297-B59C6DAB16CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D620552-EB9C-4D4B-8C8A-ADE204D2D37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2095,6 +2095,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2106,7 +2107,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2125,6 +2126,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2252,9 +2254,11 @@
     <v>Powered by Refinitiv</v>
     <v>30</v>
     <v>12.43</v>
-    <v>1.8620000000000001</v>
-    <v>0.3</v>
-    <v>2.0994000000000002E-2</v>
+    <v>1.843</v>
+    <v>0.155</v>
+    <v>1.0616E-2</v>
+    <v>-0.06</v>
+    <v>-4.0679999999999996E-3</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
     <v>2200</v>
@@ -2262,24 +2266,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>14.7</v>
+    <v>15.08</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.992030034373</v>
+    <v>45132.969059675779</v>
     <v>0</v>
-    <v>14.08</v>
-    <v>4260675389</v>
+    <v>14.73</v>
+    <v>4308859860</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>14.14</v>
+    <v>14.77</v>
     <v>0</v>
-    <v>14.29</v>
-    <v>14.59</v>
+    <v>14.6</v>
+    <v>14.755000000000001</v>
+    <v>14.69</v>
     <v>292027100</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>15</v>
-    <v>12113017</v>
+    <v>5093934</v>
+    <v>7091892</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2311,6 +2316,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2331,6 +2338,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2347,7 +2355,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2358,13 +2366,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2430,13 +2441,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2481,6 +2498,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2488,6 +2508,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2849,10 +2872,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I95" sqref="I95"/>
+      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3372,15 +3395,15 @@
       </c>
       <c r="L16" s="33">
         <f>M101/E3</f>
-        <v>10.092106402734386</v>
+        <v>10.206239201855137</v>
       </c>
       <c r="M16" s="33">
         <f>M101/E28</f>
-        <v>-11.260159332425967</v>
+        <v>-11.387501777290327</v>
       </c>
       <c r="N16" s="35">
         <f>M101/E107</f>
-        <v>-20.480766940821887</v>
+        <v>-20.712386304095986</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3467,15 +3490,15 @@
       </c>
       <c r="L19" s="33">
         <f>M101/F3</f>
-        <v>7.1607989731092436</v>
+        <v>7.241781277310924</v>
       </c>
       <c r="M19" s="36">
         <f>M101/F28</f>
-        <v>-33.364725050900546</v>
+        <v>-33.742050587314019</v>
       </c>
       <c r="N19" s="35">
         <f>M101/F106</f>
-        <v>-53.006001281397346</v>
+        <v>-53.605452283499829</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3581,7 +3604,7 @@
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-4.8826296539062626E-2</v>
+        <v>-4.828028916215437E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4958,7 +4981,7 @@
       </c>
       <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4982,7 +5005,7 @@
       </c>
       <c r="M95" s="48" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.8620000000000001</v>
+        <v>1.843</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5029,7 +5052,7 @@
       </c>
       <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12151424000000001</v>
+        <v>0.12183384000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5122,7 +5145,7 @@
       </c>
       <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4260675389</v>
+        <v>4308859860</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5170,7 +5193,7 @@
       </c>
       <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>4260675389</v>
+        <v>4308859860</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5238,7 +5261,7 @@
       </c>
       <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12151424000000001</v>
+        <v>0.12183384000000001</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5305,7 +5328,7 @@
       <c r="I107" s="29"/>
       <c r="J107" s="32">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>4226837407.6198492</v>
+        <v>4212886734.6373944</v>
       </c>
       <c r="K107" s="30" t="s">
         <v>144</v>
@@ -5336,7 +5359,7 @@
       </c>
       <c r="J108" s="32">
         <f>J107+J106</f>
-        <v>4624837407.6198492</v>
+        <v>4610886734.637394</v>
       </c>
       <c r="K108" s="30" t="s">
         <v>140</v>
@@ -5346,7 +5369,7 @@
       </c>
       <c r="M108" s="54">
         <f>M105</f>
-        <v>0.12151424000000001</v>
+        <v>0.12183384000000001</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5361,7 +5384,7 @@
       </c>
       <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2893967050.8797159</v>
+        <v>2882081245.8949947</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5388,7 +5411,7 @@
       </c>
       <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>3517492050.8797159</v>
+        <v>3505606245.8949947</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5406,7 +5429,7 @@
       </c>
       <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>10.12946242012883</v>
+        <v>10.095234392550031</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5415,7 +5438,7 @@
       </c>
       <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>14.59</v>
+        <v>14.755000000000001</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5424,7 +5447,7 @@
       </c>
       <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>-0.30572567374031323</v>
+        <v>-0.31580925838359675</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D620552-EB9C-4D4B-8C8A-ADE204D2D37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355E4A89-93B6-2945-B805-E12493F3E9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -555,9 +555,6 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -570,10 +567,19 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
-    <t>Share Dilution (2yr)</t>
+    <t>Share Dilution (3yr)</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -588,7 +594,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +706,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -874,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -925,13 +938,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,55 +965,120 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1061,7 +1132,6 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>SentinelOne</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1098,15 +1168,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9450278980028155E-2"/>
-          <c:y val="0.14021424261933194"/>
-          <c:w val="0.86359607863586585"/>
-          <c:h val="0.71619486794677145"/>
+          <c:x val="9.0662273476112012E-2"/>
+          <c:y val="0.14775584919367002"/>
+          <c:w val="0.83685008237232295"/>
+          <c:h val="0.66979306529539395"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1158,12 +1228,45 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$3:$E$3</c:f>
+              <c:f>'Sheet 1'!$C$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>93056000</c:v>
                 </c:pt>
@@ -1173,12 +1276,27 @@
                 <c:pt idx="2">
                   <c:v>422179000</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>605000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>791100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1037000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1427000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1874000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1727-5841-9EF2-4FA4AE20883A}"/>
+              <c16:uniqueId val="{00000000-7A71-EA44-A1E0-C8A78E01C306}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1187,11 +1305,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19:$B$19</c:f>
+              <c:f>'Sheet 1'!$A$28:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1232,27 +1350,75 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$19:$E$19</c:f>
+              <c:f>'Sheet 1'!$C$28:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-112875000</c:v>
+                  <c:v>-117573000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-261401000</c:v>
+                  <c:v>-271101000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-384271000</c:v>
+                  <c:v>-378385000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-144000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98700000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>285000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1727-5841-9EF2-4FA4AE20883A}"/>
+              <c16:uniqueId val="{00000001-7A71-EA44-A1E0-C8A78E01C306}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1306,12 +1472,45 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$107:$E$107</c:f>
+              <c:f>'Sheet 1'!$C$107:$J$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-72835000</c:v>
                 </c:pt>
@@ -1321,12 +1520,27 @@
                 <c:pt idx="2">
                   <c:v>-208033000</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>-70729000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>148000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>516000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1727-5841-9EF2-4FA4AE20883A}"/>
+              <c16:uniqueId val="{00000002-7A71-EA44-A1E0-C8A78E01C306}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1338,13 +1552,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1424650752"/>
-        <c:axId val="1424653648"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1703048784"/>
+        <c:axId val="1703110016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1424650752"/>
+        <c:axId val="1703048784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1586,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1384,7 +1598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424653648"/>
+        <c:crossAx val="1703110016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1392,10 +1606,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1424653648"/>
+        <c:axId val="1703110016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-350000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1441,7 +1654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424650752"/>
+        <c:crossAx val="1703048784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1459,10 +1672,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31775303749282996"/>
-          <c:y val="0.92046862754808378"/>
-          <c:w val="0.36449392501434008"/>
-          <c:h val="5.0164590791047445E-2"/>
+          <c:x val="0.31199014126529079"/>
+          <c:y val="0.88460544479550229"/>
+          <c:w val="0.37338380313663427"/>
+          <c:h val="6.1441757530085295E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1569,7 +1782,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1807,7 +2020,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2042,22 +2254,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDA98FD-47F5-7635-30BE-282F9BE1B886}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C172F9-3721-E6E6-9B0C-BEF326654027}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,38 +2297,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2252,13 +2464,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>30</v>
+    <v>24.72</v>
     <v>12.43</v>
-    <v>1.843</v>
-    <v>0.155</v>
-    <v>1.0616E-2</v>
-    <v>-0.06</v>
-    <v>-4.0679999999999996E-3</v>
+    <v>1.83</v>
+    <v>-0.23</v>
+    <v>-1.3626000000000001E-2</v>
+    <v>-0.05</v>
+    <v>-3.003E-3</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
     <v>2200</v>
@@ -2266,25 +2478,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>15.08</v>
+    <v>17.155000000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.969059675779</v>
+    <v>45218.997477036719</v>
     <v>0</v>
-    <v>14.73</v>
-    <v>4308859860</v>
+    <v>16.63</v>
+    <v>4922968770</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>14.77</v>
-    <v>0</v>
-    <v>14.6</v>
-    <v>14.755000000000001</v>
-    <v>14.69</v>
-    <v>292027100</v>
+    <v>17.02</v>
+    <v>16.88</v>
+    <v>16.649999999999999</v>
+    <v>16.600000000000001</v>
+    <v>295673800</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>5093934</v>
-    <v>7091892</v>
+    <v>3181863</v>
+    <v>5334769</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2335,7 +2546,6 @@
     <k n="Name" t="s"/>
     <k n="Official name" t="s"/>
     <k n="Open"/>
-    <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Price (Extended hours)"/>
@@ -2355,7 +2565,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2387,7 +2597,6 @@
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
       <v t="s">Beta</v>
-      <v t="s">P/E</v>
       <v t="s">Shares outstanding</v>
       <v t="s">Description</v>
       <v t="s">Employees</v>
@@ -2423,7 +2632,6 @@
     <spb s="3">
       <v>1</v>
       <v>2</v>
-      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
@@ -2449,9 +2657,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2479,7 +2687,6 @@
   </s>
   <s>
     <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
     <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
@@ -2869,13 +3076,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
+      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2966,19 +3173,19 @@
         <v>422179000</v>
       </c>
       <c r="F3" s="24">
-        <v>595000000</v>
+        <v>605000000</v>
       </c>
       <c r="G3" s="24">
-        <v>779000000</v>
+        <v>791100000</v>
       </c>
       <c r="H3" s="24">
-        <v>1022000000</v>
+        <v>1037000000</v>
       </c>
       <c r="I3" s="24">
-        <v>1303000000</v>
+        <v>1427000000</v>
       </c>
       <c r="J3" s="24">
-        <v>1591000000</v>
+        <v>1874000000</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>105</v>
@@ -3011,23 +3218,23 @@
       </c>
       <c r="F4" s="16">
         <f t="shared" ref="F4:G4" si="0">(F3/E3)-1</f>
-        <v>0.40935479974134203</v>
+        <v>0.43304143503111248</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.30924369747899161</v>
+        <v>0.30760330578512396</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4" si="1">(H3/G3)-1</f>
-        <v>0.31193838254172013</v>
+        <v>0.310833017317659</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" ref="I4" si="2">(I3/H3)-1</f>
-        <v>0.27495107632093929</v>
+        <v>0.37608486017357756</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" ref="J4" si="3">(J3/I3)-1</f>
-        <v>0.22102839600920943</v>
+        <v>0.31324456902592845</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -3105,16 +3312,16 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="68" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3139,20 +3346,20 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="K7" s="17">
-        <f>E7</f>
-        <v>0.6584931983826765</v>
+        <f>F7</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="L7" s="21">
-        <f>E21</f>
-        <v>-0.91020870294353817</v>
+        <f>F21</f>
+        <v>-0.23801652892561984</v>
       </c>
       <c r="M7" s="21">
-        <f>E30</f>
-        <v>-0.89626674941197926</v>
+        <f>F30</f>
+        <v>-0.23801652892561984</v>
       </c>
       <c r="N7" s="21">
-        <f>E107/E3</f>
-        <v>-0.49276017992368165</v>
+        <f>F107/F3</f>
+        <v>-0.11690743801652892</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3321,7 +3528,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.24299799904026365</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="29">
         <f>E67/E72</f>
         <v>0.42751727072713608</v>
       </c>
@@ -3360,7 +3567,7 @@
         <v>680578000</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>117</v>
@@ -3390,20 +3597,20 @@
         <v>824755000</v>
       </c>
       <c r="K16" s="25">
-        <f>(E35+D35)/2</f>
-        <v>0.17944553344566033</v>
-      </c>
-      <c r="L16" s="33">
-        <f>M101/E3</f>
-        <v>10.206239201855137</v>
-      </c>
-      <c r="M16" s="33">
-        <f>M101/E28</f>
-        <v>-11.387501777290327</v>
-      </c>
-      <c r="N16" s="35">
-        <f>M101/E107</f>
-        <v>-20.712386304095986</v>
+        <f>SUM(C35:E35)/3</f>
+        <v>0.12033869386573433</v>
+      </c>
+      <c r="L16" s="28">
+        <f>M102/E3</f>
+        <v>11.660856579791984</v>
+      </c>
+      <c r="M16" s="28">
+        <f>M102/E28</f>
+        <v>-13.010475494535989</v>
+      </c>
+      <c r="N16" s="30">
+        <f>M102/E107</f>
+        <v>-23.664364644070893</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3450,7 +3657,7 @@
         <v>156</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3470,35 +3677,34 @@
         <v>-384271000</v>
       </c>
       <c r="F19" s="27">
-        <v>-152300000</v>
+        <v>-144000000</v>
       </c>
       <c r="G19" s="27">
-        <v>-28900000</v>
+        <v>-9000000</v>
       </c>
       <c r="H19" s="27">
-        <v>95000000</v>
+        <v>71000000</v>
       </c>
       <c r="I19" s="27">
-        <v>186200000</v>
+        <v>204300000</v>
       </c>
       <c r="J19" s="27">
-        <v>307000000</v>
+        <v>362000000</v>
       </c>
       <c r="K19" s="26">
         <f>E40-E56-E61</f>
         <v>623525000</v>
       </c>
-      <c r="L19" s="33">
-        <f>M101/F3</f>
-        <v>7.241781277310924</v>
-      </c>
-      <c r="M19" s="36">
-        <f>M101/F28</f>
-        <v>-33.742050587314019</v>
-      </c>
-      <c r="N19" s="35">
-        <f>M101/F106</f>
-        <v>-53.605452283499829</v>
+      <c r="L19" s="28">
+        <f>M102/F3</f>
+        <v>8.1371384628099168</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="N19" s="30">
+        <f>M102/F107</f>
+        <v>-69.603257079839949</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3519,23 +3725,23 @@
       </c>
       <c r="F20" s="16">
         <f t="shared" ref="F20:J20" si="6">(F19/E19)-1</f>
-        <v>-0.60366512175001497</v>
+        <v>-0.62526446179909489</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="6"/>
-        <v>-0.81024294156270515</v>
+        <v>-0.9375</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="6"/>
-        <v>-4.2871972318339102</v>
+        <v>-8.8888888888888893</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="6"/>
-        <v>0.96</v>
+        <v>1.8774647887323943</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="6"/>
-        <v>0.64876476906552094</v>
+        <v>0.77190406265296141</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -3555,31 +3761,34 @@
         <f>E19/E3</f>
         <v>-0.91020870294353817</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="34">
         <f t="shared" ref="F21:J21" si="7">F19/F3</f>
-        <v>-0.25596638655462184</v>
-      </c>
-      <c r="G21" s="39">
+        <v>-0.23801652892561984</v>
+      </c>
+      <c r="G21" s="34">
         <f t="shared" si="7"/>
-        <v>-3.7098844672657255E-2</v>
-      </c>
-      <c r="H21" s="39">
+        <v>-1.1376564277588168E-2</v>
+      </c>
+      <c r="H21" s="34">
         <f t="shared" si="7"/>
-        <v>9.2954990215264183E-2</v>
-      </c>
-      <c r="I21" s="39">
+        <v>6.8466730954676952E-2</v>
+      </c>
+      <c r="I21" s="34">
         <f t="shared" si="7"/>
-        <v>0.14290099769762088</v>
-      </c>
-      <c r="J21" s="39">
+        <v>0.14316748423265593</v>
+      </c>
+      <c r="J21" s="34">
         <f t="shared" si="7"/>
-        <v>0.19296040226272784</v>
+        <v>0.19316969050160085</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>168</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3598,13 +3807,16 @@
       <c r="E22" s="10">
         <v>-402576000</v>
       </c>
-      <c r="M22" s="41">
-        <f>(-1*E98)/M101</f>
+      <c r="L22" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="36">
+        <f>(-1*E98)/M102</f>
         <v>0</v>
       </c>
-      <c r="N22" s="42">
-        <f>E107/M101</f>
-        <v>-4.828028916215437E-2</v>
+      <c r="N22" s="37">
+        <f>F107/M102</f>
+        <v>-1.4367143750944413E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3710,20 +3922,20 @@
       <c r="E28" s="11">
         <v>-378385000</v>
       </c>
-      <c r="F28" s="37">
-        <v>-127700000</v>
-      </c>
-      <c r="G28" s="37">
-        <v>-3100000</v>
-      </c>
-      <c r="H28" s="37">
-        <v>99640000</v>
-      </c>
-      <c r="I28" s="37">
-        <v>141500000</v>
-      </c>
-      <c r="J28" s="37">
-        <v>280600000</v>
+      <c r="F28" s="32">
+        <v>-144000000</v>
+      </c>
+      <c r="G28" s="32">
+        <v>6300000</v>
+      </c>
+      <c r="H28" s="32">
+        <v>98700000</v>
+      </c>
+      <c r="I28" s="32">
+        <v>147200000</v>
+      </c>
+      <c r="J28" s="32">
+        <v>285000000</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3744,23 +3956,23 @@
       </c>
       <c r="F29" s="16">
         <f t="shared" ref="F29:J29" si="8">(F28/E28)-1</f>
-        <v>-0.66251304887878748</v>
+        <v>-0.61943523131202349</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" si="8"/>
-        <v>-0.97572435395458101</v>
+        <v>-1.04375</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="8"/>
-        <v>-33.141935483870967</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="8"/>
-        <v>0.42011240465676436</v>
+        <v>0.491388044579534</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="8"/>
-        <v>0.98303886925795059</v>
+        <v>0.93614130434782616</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3780,25 +3992,25 @@
         <f>E28/E3</f>
         <v>-0.89626674941197926</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="33">
         <f t="shared" ref="F30:J30" si="9">F28/F3</f>
-        <v>-0.2146218487394958</v>
-      </c>
-      <c r="G30" s="38">
+        <v>-0.23801652892561984</v>
+      </c>
+      <c r="G30" s="33">
         <f t="shared" si="9"/>
-        <v>-3.9794608472400513E-3</v>
-      </c>
-      <c r="H30" s="38">
+        <v>7.9635949943117172E-3</v>
+      </c>
+      <c r="H30" s="33">
         <f t="shared" si="9"/>
-        <v>9.749510763209393E-2</v>
-      </c>
-      <c r="I30" s="38">
+        <v>9.5178399228543875E-2</v>
+      </c>
+      <c r="I30" s="33">
         <f t="shared" si="9"/>
-        <v>0.10859554873369148</v>
-      </c>
-      <c r="J30" s="38">
+        <v>0.10315346881569727</v>
+      </c>
+      <c r="J30" s="33">
         <f t="shared" si="9"/>
-        <v>0.17636706473915775</v>
+        <v>0.1520811099252935</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3818,16 +4030,16 @@
         <v>-1.36</v>
       </c>
       <c r="F31" s="12">
-        <v>-0.44</v>
+        <v>-0.39</v>
       </c>
       <c r="G31" s="12">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="H31" s="12">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I31" s="12">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="J31" s="12">
         <v>0.96</v>
@@ -3866,13 +4078,17 @@
       <c r="E33" s="1">
         <v>277802861</v>
       </c>
+      <c r="F33" s="1" cm="1">
+        <f t="array" ref="F33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>295673800</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>91</v>
+      <c r="B34" s="1">
+        <v>204000000</v>
       </c>
       <c r="C34" s="1">
         <v>204433503</v>
@@ -3882,6 +4098,10 @@
       </c>
       <c r="E34" s="1">
         <v>277802861</v>
+      </c>
+      <c r="F34" s="1" cm="1">
+        <f t="array" ref="F34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>295673800</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -3889,19 +4109,22 @@
         <v>102</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="22" t="e">
+      <c r="C35" s="22">
         <f>(C34-B34)/B34</f>
-        <v>#VALUE!</v>
+        <v>2.1250147058823527E-3</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:E35" si="10">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="10">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
         <f t="shared" si="10"/>
         <v>0.35889106689132066</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="22">
+        <f t="shared" si="10"/>
+        <v>6.4329571465428503E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -4706,7 +4929,7 @@
         <v>-44442000</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -4722,12 +4945,8 @@
       <c r="E83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L83" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="M83" s="66"/>
-    </row>
-    <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -4743,12 +4962,18 @@
       <c r="E84" s="1">
         <v>3670000</v>
       </c>
-      <c r="L84" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="M84" s="67"/>
-    </row>
-    <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="M84" s="74"/>
+    </row>
+    <row r="85" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -4762,13 +4987,16 @@
         <v>61577000</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="L85" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="M85" s="44">
-        <f>E17</f>
-        <v>-1830000</v>
-      </c>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="M85" s="75"/>
     </row>
     <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -4786,12 +5014,18 @@
       <c r="E86" s="1">
         <v>-12217000</v>
       </c>
-      <c r="L86" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="M86" s="44">
-        <f>E56</f>
-        <v>0</v>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M86" s="45">
+        <f>E17</f>
+        <v>-1830000</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4810,11 +5044,17 @@
       <c r="E87" s="10">
         <v>-193287000</v>
       </c>
-      <c r="L87" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="M87" s="44">
-        <f>E61</f>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="M87" s="45">
+        <f>E56</f>
         <v>0</v>
       </c>
     </row>
@@ -4834,10 +5074,17 @@
       <c r="E88" s="1">
         <v>-18812000</v>
       </c>
-      <c r="L88" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="M88" s="46">
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M88" s="45">
+        <f>E61</f>
         <v>0</v>
       </c>
     </row>
@@ -4861,12 +5108,17 @@
         <f t="shared" si="12"/>
         <v>4.4559298307116177E-2</v>
       </c>
-      <c r="L89" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="M89" s="44">
-        <f>E27</f>
-        <v>-5613000</v>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="M89" s="46">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4885,12 +5137,18 @@
       <c r="E90" s="1">
         <v>-281032000</v>
       </c>
-      <c r="L90" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M90" s="44">
-        <f>E25</f>
-        <v>-383998000</v>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="M90" s="45">
+        <f>E27</f>
+        <v>-5613000</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4909,12 +5167,18 @@
       <c r="E91" s="1">
         <v>925185000</v>
       </c>
-      <c r="L91" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="M91" s="46">
-        <f>M89/M90</f>
-        <v>1.4617263631581414E-2</v>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="45">
+        <f>E25</f>
+        <v>-383998000</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4933,15 +5197,21 @@
       <c r="E92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L92" s="45" t="s">
-        <v>129</v>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="M92" s="46">
-        <f>M88*(1-M91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <f>M90/M91</f>
+        <v>1.4617263631581414E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -4955,12 +5225,21 @@
         <v>-6641000</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="L93" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="M93" s="67"/>
-    </row>
-    <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="M93" s="46">
+        <f>M89*(1-M92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -4976,13 +5255,16 @@
       <c r="E94" s="10">
         <v>-1312666000</v>
       </c>
-      <c r="L94" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="M94" s="47">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="M94" s="75"/>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -5000,12 +5282,18 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="L95" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="M95" s="48" cm="1">
-        <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.843</v>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="M95" s="69">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5024,11 +5312,18 @@
       <c r="E96" s="1">
         <v>36494000</v>
       </c>
-      <c r="L96" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="M96" s="47">
-        <v>8.4000000000000005E-2</v>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="M96" s="48" cm="1">
+        <f t="array" ref="M96">_FV(A1,"Beta")</f>
+        <v>1.83</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5047,15 +5342,20 @@
       <c r="E97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L97" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="M97" s="46">
-        <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12183384000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="M97" s="47">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -5071,12 +5371,21 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="L98" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="M98" s="67"/>
-    </row>
-    <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="M98" s="46">
+        <f>(M95)+((M96)*(M97-M95))</f>
+        <v>0.11303340000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5092,13 +5401,16 @@
       <c r="E99" s="1">
         <v>-186000</v>
       </c>
-      <c r="L99" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="M99" s="44">
-        <f>M86+M87</f>
-        <v>0</v>
-      </c>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="M99" s="75"/>
     </row>
     <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -5116,11 +5428,17 @@
       <c r="E100" s="10">
         <v>36308000</v>
       </c>
-      <c r="L100" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="M100" s="46">
-        <f>M99/M103</f>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="M100" s="45">
+        <f>M87+M88</f>
         <v>0</v>
       </c>
     </row>
@@ -5140,12 +5458,18 @@
       <c r="E101" s="1">
         <v>0</v>
       </c>
-      <c r="L101" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="M101" s="49" cm="1">
-        <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4308859860</v>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="M101" s="46">
+        <f>M100/M104</f>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5164,12 +5488,18 @@
       <c r="E102" s="10">
         <v>1469645000</v>
       </c>
-      <c r="L102" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="M102" s="46">
-        <f>M101/M103</f>
-        <v>1</v>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="M102" s="49" cm="1">
+        <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
+        <v>4922968770</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5188,15 +5518,21 @@
       <c r="E103" s="1">
         <v>1672051</v>
       </c>
-      <c r="L103" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="M103" s="50">
-        <f>M99+M101</f>
-        <v>4308859860</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="M103" s="46">
+        <f>M102/M104</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5212,59 +5548,67 @@
       <c r="E104" s="11">
         <v>202406000</v>
       </c>
-      <c r="L104" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="M104" s="67"/>
-    </row>
-    <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="M104" s="51">
+        <f>M100+M102</f>
+        <v>4922968770</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" ref="C105:D105" si="13">(C22*(1-$M$91))+C77+C88+C81</f>
+        <f>(C22*(1-$M$92))+C77+C88+C81</f>
         <v>-96603428.322543338</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="13"/>
+        <f>(D22*(1-$M$92))+D77+D88+D81</f>
         <v>-203430799.40520522</v>
       </c>
       <c r="E105" s="1">
-        <f>(E22*(1-$M$91))+E77+E88+E81</f>
+        <f>(E22*(1-$M$92))+E77+E88+E81</f>
         <v>-385782440.4762525</v>
       </c>
-      <c r="F105" s="28">
-        <f>E105*(1+$M$106)</f>
-        <v>-503563081.22365969</v>
-      </c>
-      <c r="G105" s="28">
-        <f t="shared" ref="G105:J105" si="14">F105*(1+$M$106)</f>
-        <v>-657302536.78322971</v>
-      </c>
-      <c r="H105" s="28">
-        <f t="shared" si="14"/>
-        <v>-857979150.91748691</v>
-      </c>
-      <c r="I105" s="28">
-        <f t="shared" si="14"/>
-        <v>-1119922991.6434324</v>
-      </c>
-      <c r="J105" s="28">
-        <f t="shared" si="14"/>
-        <v>-1461839143.6089759</v>
-      </c>
-      <c r="K105" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="L105" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="M105" s="52">
-        <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12183384000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F105" s="70">
+        <f>F107/F3</f>
+        <v>-0.11690743801652892</v>
+      </c>
+      <c r="G105" s="70">
+        <f>G107/G3</f>
+        <v>7.3315636455568198E-2</v>
+      </c>
+      <c r="H105" s="70">
+        <f>H107/H3</f>
+        <v>0.14271938283510124</v>
+      </c>
+      <c r="I105" s="70">
+        <f>I107/I3</f>
+        <v>0.23826208829712683</v>
+      </c>
+      <c r="J105" s="70">
+        <f>J107/J3</f>
+        <v>0.27534685165421557</v>
+      </c>
+      <c r="K105" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="L105" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="M105" s="75"/>
+    </row>
+    <row r="106" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>158</v>
       </c>
@@ -5280,34 +5624,40 @@
         <f>(E107/D107)-1</f>
         <v>0.96476266031997882</v>
       </c>
-      <c r="F106" s="31">
-        <v>-80381000</v>
-      </c>
-      <c r="G106" s="31">
-        <v>59000000</v>
-      </c>
-      <c r="H106" s="31">
-        <v>190300000</v>
-      </c>
-      <c r="I106" s="31">
-        <v>280400000</v>
-      </c>
-      <c r="J106" s="31">
-        <v>398000000</v>
-      </c>
-      <c r="K106" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="L106" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="M106" s="54">
-        <f>(SUM(F4:J4)/5)</f>
-        <v>0.30530327041844052</v>
+      <c r="F106" s="52">
+        <f>(F107/E105)-1</f>
+        <v>-0.81666091408234054</v>
+      </c>
+      <c r="G106" s="52">
+        <f>(G107/F107)-1</f>
+        <v>-1.8200313874082767</v>
+      </c>
+      <c r="H106" s="52">
+        <f>(H107/G107)-1</f>
+        <v>1.5517241379310347</v>
+      </c>
+      <c r="I106" s="52">
+        <f>(I107/H107)-1</f>
+        <v>1.2972972972972974</v>
+      </c>
+      <c r="J106" s="52">
+        <f>(J107/I107)-1</f>
+        <v>0.51764705882352935</v>
+      </c>
+      <c r="K106" s="66">
+        <f>SUM(F106:J106)/5</f>
+        <v>0.1459952385122488</v>
+      </c>
+      <c r="L106" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="M106" s="53">
+        <f>(M101*M93)+(M103*M98)</f>
+        <v>0.11303340000000001</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="35" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -5322,151 +5672,239 @@
       <c r="E107" s="1">
         <v>-208033000</v>
       </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="32">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>4212886734.6373944</v>
-      </c>
-      <c r="K107" s="30" t="s">
+      <c r="F107" s="54">
+        <v>-70729000</v>
+      </c>
+      <c r="G107" s="54">
+        <v>58000000</v>
+      </c>
+      <c r="H107" s="54">
+        <v>148000000</v>
+      </c>
+      <c r="I107" s="54">
+        <v>340000000</v>
+      </c>
+      <c r="J107" s="54">
+        <v>516000000</v>
+      </c>
+      <c r="K107" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="L107" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="M107" s="41">
+        <f>(SUM(F4:J4)/5)</f>
+        <v>0.34816143746668027</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F108" s="72"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="56">
+        <f>J107*(1+M108)/(M109-M108)</f>
+        <v>6007946983.7584352</v>
+      </c>
+      <c r="K108" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="L107" s="55" t="s">
+      <c r="L108" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="M107" s="56">
+      <c r="M108" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="32">
-        <f t="shared" ref="F108:I108" si="15">F107+F106</f>
-        <v>-80381000</v>
-      </c>
-      <c r="G108" s="32">
-        <f t="shared" si="15"/>
-        <v>59000000</v>
-      </c>
-      <c r="H108" s="32">
-        <f t="shared" si="15"/>
-        <v>190300000</v>
-      </c>
-      <c r="I108" s="32">
-        <f t="shared" si="15"/>
-        <v>280400000</v>
-      </c>
-      <c r="J108" s="32">
-        <f>J107+J106</f>
-        <v>4610886734.637394</v>
-      </c>
-      <c r="K108" s="30" t="s">
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F109" s="56">
+        <f t="shared" ref="F109:I109" si="13">F108+F107</f>
+        <v>-70729000</v>
+      </c>
+      <c r="G109" s="56">
+        <f t="shared" si="13"/>
+        <v>58000000</v>
+      </c>
+      <c r="H109" s="56">
+        <f t="shared" si="13"/>
+        <v>148000000</v>
+      </c>
+      <c r="I109" s="56">
+        <f t="shared" si="13"/>
+        <v>340000000</v>
+      </c>
+      <c r="J109" s="56">
+        <f>J108+J107</f>
+        <v>6523946983.7584352</v>
+      </c>
+      <c r="K109" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="L108" s="57" t="s">
+      <c r="L109" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="M108" s="54">
-        <f>M105</f>
-        <v>0.12183384000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="64" t="s">
+      <c r="M109" s="41">
+        <f>M106</f>
+        <v>0.11303340000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F110" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="G109" s="64"/>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="58" t="s">
+      <c r="G110" s="76"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="44"/>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F111" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="G110" s="49">
-        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2882081245.8949947</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="58" t="s">
+      <c r="G111" s="49">
+        <f>NPV(M109,F109,G109,H109,I109,J109)</f>
+        <v>4131316528.5742121</v>
+      </c>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+    </row>
+    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F112" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="G111" s="49">
+      <c r="G112" s="49">
         <f>E40</f>
         <v>623525000</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="58" t="s">
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="44"/>
+      <c r="M112" s="44"/>
+    </row>
+    <row r="113" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F113" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="G112" s="49">
-        <f>M99</f>
+      <c r="G113" s="49">
+        <f>M100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="58" t="s">
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="44"/>
+    </row>
+    <row r="114" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F114" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G113" s="49">
-        <f>G110+G111-G112</f>
-        <v>3505606245.8949947</v>
-      </c>
-    </row>
-    <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="G114" s="58">
+      <c r="G114" s="49">
+        <f>G111+G112-G113</f>
+        <v>4754841528.5742121</v>
+      </c>
+      <c r="H114" s="44"/>
+      <c r="I114" s="44"/>
+      <c r="J114" s="44"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="44"/>
+      <c r="M114" s="44"/>
+    </row>
+    <row r="115" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F115" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="G115" s="60">
         <f>E34*(1+(5*0.05))</f>
         <v>347253576.25</v>
       </c>
-    </row>
-    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="59" t="s">
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
+      <c r="M115" s="44"/>
+    </row>
+    <row r="116" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F116" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="G115" s="60">
-        <f>G113/G114</f>
-        <v>10.095234392550031</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="58" t="s">
+      <c r="G116" s="62">
+        <f>G114/G115</f>
+        <v>13.692707156314599</v>
+      </c>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+    </row>
+    <row r="117" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F117" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G116" s="61" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>14.755000000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="59" t="s">
+      <c r="G117" s="63" cm="1">
+        <f t="array" ref="G117">_FV(A1,"Price")</f>
+        <v>16.649999999999999</v>
+      </c>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="44"/>
+    </row>
+    <row r="118" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F118" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="G117" s="62">
-        <f>G115/G116-1</f>
-        <v>-0.31580925838359675</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="59" t="s">
+      <c r="G118" s="64">
+        <f>G116/G117-1</f>
+        <v>-0.17761518580693092</v>
+      </c>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+    </row>
+    <row r="119" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F119" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="G118" s="63" t="str">
-        <f>IF(G115&gt;G116,"BUY","SELL")</f>
+      <c r="G119" s="65" t="str">
+        <f>IF(G116&gt;G117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="L83:M83"/>
+  <mergeCells count="7">
     <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="L94:M94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B36" r:id="rId1" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -5478,7 +5916,7 @@
     <hyperlink ref="E74" r:id="rId7" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{1D22E1A5-AED1-B946-BE91-8DEF993AEF75}"/>
     <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1583708/000158370822000016/0001583708-22-000016-index.htm" xr:uid="{D1B1AF4A-1754-5C40-89FA-4EB09B3A792F}"/>
     <hyperlink ref="F1" r:id="rId9" display="https://finbox.com/NYSE:S/explorer/revenue_proj" xr:uid="{A5E4CC53-B047-AF46-AC55-7997D2499D6B}"/>
-    <hyperlink ref="K106" r:id="rId10" xr:uid="{D898F9F4-5431-3849-A47F-46FB022D4D5C}"/>
+    <hyperlink ref="K107" r:id="rId10" xr:uid="{D898F9F4-5431-3849-A47F-46FB022D4D5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId11"/>

--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355E4A89-93B6-2945-B805-E12493F3E9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F376C50-27CB-E442-9645-85107D200FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,9 +567,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>Share Dilution (3yr)</t>
-  </si>
-  <si>
     <t>5Y Fwd FCF CAGR</t>
   </si>
   <si>
@@ -580,6 +577,9 @@
   </si>
   <si>
     <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Share Dilution (4yr)</t>
   </si>
 </sst>
 </file>
@@ -2300,13 +2300,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2322,14 +2324,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2339,6 +2341,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2464,13 +2468,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>24.72</v>
+    <v>24.36</v>
     <v>12.43</v>
     <v>1.83</v>
-    <v>-0.23</v>
-    <v>-1.3626000000000001E-2</v>
-    <v>-0.05</v>
-    <v>-3.003E-3</v>
+    <v>-0.01</v>
+    <v>-6.5229999999999997E-4</v>
+    <v>0.06</v>
+    <v>3.9160000000000002E-3</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
     <v>2200</v>
@@ -2478,24 +2482,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>17.155000000000001</v>
+    <v>15.778600000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.997477036719</v>
+    <v>45226.996513714847</v>
     <v>0</v>
-    <v>16.63</v>
-    <v>4922968770</v>
+    <v>15.28</v>
+    <v>4529723000</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>17.02</v>
-    <v>16.88</v>
-    <v>16.649999999999999</v>
-    <v>16.600000000000001</v>
+    <v>15.66</v>
+    <v>15.33</v>
+    <v>15.32</v>
+    <v>15.38</v>
     <v>295673800</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>3181863</v>
-    <v>5334769</v>
+    <v>2521204</v>
+    <v>4611989</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -3079,10 +3083,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
+      <selection pane="bottomRight" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3567,7 +3571,7 @@
         <v>680578000</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>117</v>
@@ -3597,20 +3601,20 @@
         <v>824755000</v>
       </c>
       <c r="K16" s="25">
-        <f>SUM(C35:E35)/3</f>
-        <v>0.12033869386573433</v>
+        <f>AVERAGE(C35:F35)</f>
+        <v>0.10633641326565788</v>
       </c>
       <c r="L16" s="28">
         <f>M102/E3</f>
-        <v>11.660856579791984</v>
+        <v>10.729389666468489</v>
       </c>
       <c r="M16" s="28">
         <f>M102/E28</f>
-        <v>-13.010475494535989</v>
+        <v>-11.971201289691717</v>
       </c>
       <c r="N16" s="30">
         <f>M102/E107</f>
-        <v>-23.664364644070893</v>
+        <v>-21.774059884729827</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3697,14 +3701,14 @@
       </c>
       <c r="L19" s="28">
         <f>M102/F3</f>
-        <v>8.1371384628099168</v>
+        <v>7.4871454545454545</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N19" s="30">
         <f>M102/F107</f>
-        <v>-69.603257079839949</v>
+        <v>-64.043362694227255</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3782,13 +3786,13 @@
         <v>0.19316969050160085</v>
       </c>
       <c r="L21" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>163</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3808,7 +3812,7 @@
         <v>-402576000</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M22" s="36">
         <f>(-1*E98)/M102</f>
@@ -3816,7 +3820,7 @@
       </c>
       <c r="N22" s="37">
         <f>F107/M102</f>
-        <v>-1.4367143750944413E-2</v>
+        <v>-1.5614420572737009E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5293,7 +5297,7 @@
       </c>
       <c r="M95" s="69">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5382,7 +5386,7 @@
       </c>
       <c r="M98" s="46">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.11303340000000001</v>
+        <v>0.11350650000000001</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5499,7 +5503,7 @@
       </c>
       <c r="M102" s="49" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>4922968770</v>
+        <v>4529723000</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5561,7 +5565,7 @@
       </c>
       <c r="M104" s="51">
         <f>M100+M102</f>
-        <v>4922968770</v>
+        <v>4529723000</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5601,7 +5605,7 @@
         <v>0.27534685165421557</v>
       </c>
       <c r="K105" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L105" s="75" t="s">
         <v>141</v>
@@ -5653,7 +5657,7 @@
       </c>
       <c r="M106" s="53">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.11303340000000001</v>
+        <v>0.11350650000000001</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5705,7 +5709,7 @@
       <c r="I108" s="72"/>
       <c r="J108" s="56">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>6007946983.7584352</v>
+        <v>5975832283.5045996</v>
       </c>
       <c r="K108" s="57" t="s">
         <v>144</v>
@@ -5736,7 +5740,7 @@
       </c>
       <c r="J109" s="56">
         <f>J108+J107</f>
-        <v>6523946983.7584352</v>
+        <v>6491832283.5045996</v>
       </c>
       <c r="K109" s="57" t="s">
         <v>140</v>
@@ -5746,7 +5750,7 @@
       </c>
       <c r="M109" s="41">
         <f>M106</f>
-        <v>0.11303340000000001</v>
+        <v>0.11350650000000001</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -5767,7 +5771,7 @@
       </c>
       <c r="G111" s="49">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>4131316528.5742121</v>
+        <v>4103923978.0633354</v>
       </c>
       <c r="H111" s="44"/>
       <c r="I111" s="44"/>
@@ -5812,7 +5816,7 @@
       </c>
       <c r="G114" s="49">
         <f>G111+G112-G113</f>
-        <v>4754841528.5742121</v>
+        <v>4727448978.0633354</v>
       </c>
       <c r="H114" s="44"/>
       <c r="I114" s="44"/>
@@ -5842,7 +5846,7 @@
       </c>
       <c r="G116" s="62">
         <f>G114/G115</f>
-        <v>13.692707156314599</v>
+        <v>13.613823733984757</v>
       </c>
       <c r="H116" s="44"/>
       <c r="I116" s="44"/>
@@ -5857,7 +5861,7 @@
       </c>
       <c r="G117" s="63" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>16.649999999999999</v>
+        <v>15.32</v>
       </c>
       <c r="H117" s="44"/>
       <c r="I117" s="44"/>
@@ -5872,7 +5876,7 @@
       </c>
       <c r="G118" s="64">
         <f>G116/G117-1</f>
-        <v>-0.17761518580693092</v>
+        <v>-0.11136920796444139</v>
       </c>
       <c r="H118" s="44"/>
       <c r="I118" s="44"/>

--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B609F-2BC9-0044-A347-2FF0CC3B42DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DAF90E-9374-394F-8E2C-7BD35BF08F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="1840" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1456,6 +1456,12 @@
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -1491,12 +1497,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1551,7 +1551,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1690,11 +1690,11 @@
     <v>Powered by Refinitiv</v>
     <v>21.954999999999998</v>
     <v>12.43</v>
-    <v>1.8240000000000001</v>
-    <v>0.96</v>
-    <v>6.3365999999999992E-2</v>
-    <v>0.16</v>
-    <v>9.9319999999999999E-3</v>
+    <v>1.821</v>
+    <v>-0.35499999999999998</v>
+    <v>-2.2697999999999999E-2</v>
+    <v>0.11</v>
+    <v>7.1940000000000007E-3</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
     <v>2200</v>
@@ -1702,24 +1702,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>16.495000000000001</v>
+    <v>15.8042</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45233.980964710157</v>
+    <v>45239.970168483596</v>
     <v>0</v>
-    <v>15.21</v>
-    <v>4763306000</v>
+    <v>15.265000000000001</v>
+    <v>4519374033</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>15.21</v>
-    <v>15.15</v>
-    <v>16.11</v>
-    <v>16.27</v>
+    <v>15.77</v>
+    <v>15.64</v>
+    <v>15.285</v>
+    <v>15.4</v>
     <v>295673800</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>5789225</v>
-    <v>4360987</v>
+    <v>3051912</v>
+    <v>4238996</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -1881,9 +1881,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -8561,7 +8561,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8569,48 +8569,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="109" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="e" vm="1">
+    <row r="1" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="110" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-    </row>
-    <row r="2" spans="1:16" s="109" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+    </row>
+    <row r="2" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>4763306000</v>
+        <v>4519374033</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>192</v>
@@ -8638,12 +8638,12 @@
       </c>
       <c r="I3" s="39">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>6500001678.8087149</v>
+        <v>6480940097.937191</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="115">
+      <c r="K3" s="103">
         <f>(Financials!F172*-1)/Model!A3</f>
         <v>0</v>
       </c>
@@ -8651,10 +8651,10 @@
         <v>203</v>
       </c>
       <c r="M3" s="41"/>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="111"/>
+      <c r="O3" s="113"/>
       <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -8688,23 +8688,23 @@
       </c>
       <c r="I4" s="48">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>4553272350.7855034</v>
+        <v>4536936454.7118397</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>202</v>
       </c>
       <c r="K4" s="54" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>6.3365999999999992E-2</v>
+        <v>-2.2697999999999999E-2</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>242</v>
       </c>
       <c r="M4" s="41"/>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="113"/>
+      <c r="O4" s="115"/>
       <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -8738,14 +8738,14 @@
       </c>
       <c r="I5" s="48">
         <f>I4+G5-G6</f>
-        <v>5259712350.7855034</v>
+        <v>5243376454.7118397</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="116" cm="1">
+      <c r="K5" s="104" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>16.11</v>
+        <v>15.285</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>210</v>
@@ -8763,7 +8763,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52">
         <f>O20/F10</f>
-        <v>7.8732330578512393</v>
+        <v>7.4700397239669423</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>212</v>
@@ -8791,14 +8791,14 @@
       </c>
       <c r="I6" s="54">
         <f>N25</f>
-        <v>0.10636920975333254</v>
+        <v>0.10660853086241959</v>
       </c>
       <c r="J6" s="47" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="55">
         <f>I5/G4</f>
-        <v>14.895050130827917</v>
+        <v>14.848788287076543</v>
       </c>
       <c r="L6" s="56" t="s">
         <v>216</v>
@@ -8816,14 +8816,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59">
         <f>O20/F12</f>
-        <v>-41.783385964912277</v>
+        <v>-39.643631868421053</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="61">
         <f>F14/A3</f>
-        <v>-1.4695675650483089E-2</v>
+        <v>-1.5488870690690186E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>219</v>
@@ -8850,7 +8850,7 @@
       </c>
       <c r="K7" s="68">
         <f>K6/K5-1</f>
-        <v>-7.5415882630172737E-2</v>
+        <v>-2.8538548441181422E-2</v>
       </c>
       <c r="L7" s="69" t="s">
         <v>222</v>
@@ -9108,10 +9108,10 @@
       </c>
       <c r="L13" s="78"/>
       <c r="M13" s="78"/>
-      <c r="N13" s="112" t="s">
+      <c r="N13" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="O13" s="113"/>
+      <c r="O13" s="115"/>
       <c r="P13" s="41"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="O14" s="87">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="41"/>
     </row>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="O15" s="91" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.8240000000000001</v>
+        <v>1.821</v>
       </c>
       <c r="P15" s="41"/>
     </row>
@@ -9260,7 +9260,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.11474344000000002</v>
+        <v>0.11543609000000001</v>
       </c>
       <c r="P17" s="41"/>
     </row>
@@ -9278,23 +9278,23 @@
       <c r="K18" s="78"/>
       <c r="L18" s="78"/>
       <c r="M18" s="78"/>
-      <c r="N18" s="112" t="s">
+      <c r="N18" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="113"/>
+      <c r="O18" s="115"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="103" t="str" cm="1">
+      <c r="A19" s="105" t="str" cm="1">
         <f t="array" ref="A19">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="114" cm="1">
+      <c r="B19" s="105"/>
+      <c r="C19" s="116" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2013</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="99"/>
       <c r="F19" s="78" t="s">
         <v>237</v>
@@ -9316,14 +9316,14 @@
       <c r="P19" s="41"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="103" t="str" cm="1">
+      <c r="A20" s="105" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="78"/>
       <c r="G20" s="78"/>
       <c r="H20" s="78"/>
@@ -9337,16 +9337,16 @@
       </c>
       <c r="O20" s="100">
         <f>A3</f>
-        <v>4763306000</v>
+        <v>4519374033</v>
       </c>
       <c r="P20" s="41"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
       <c r="H21" s="78"/>
@@ -9359,16 +9359,16 @@
       </c>
       <c r="O21" s="100">
         <f>O19+O20</f>
-        <v>4788462000</v>
+        <v>4544530033</v>
       </c>
       <c r="P21" s="41"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="103"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
       <c r="F22" s="78"/>
       <c r="G22" s="78"/>
       <c r="H22" s="78"/>
@@ -9382,16 +9382,16 @@
       </c>
       <c r="O22" s="101">
         <f>(O19/O21)</f>
-        <v>5.2534613410318383E-3</v>
+        <v>5.5354458695025194E-3</v>
       </c>
       <c r="P22" s="41"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="78"/>
       <c r="G23" s="78"/>
       <c r="H23" s="78"/>
@@ -9405,16 +9405,16 @@
       </c>
       <c r="O23" s="102">
         <f>O20/O21</f>
-        <v>0.99474653865896812</v>
+        <v>0.9944645541304975</v>
       </c>
       <c r="P23" s="41"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="103"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
@@ -9423,18 +9423,18 @@
       <c r="K24" s="78"/>
       <c r="L24" s="78"/>
       <c r="M24" s="78"/>
-      <c r="N24" s="104" t="s">
+      <c r="N24" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="105"/>
+      <c r="O24" s="107"/>
       <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="103"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="78"/>
       <c r="G25" s="78"/>
       <c r="H25" s="78"/>
@@ -9443,19 +9443,19 @@
       <c r="K25" s="78"/>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="106">
+      <c r="N25" s="108">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10636920975333254</v>
-      </c>
-      <c r="O25" s="107"/>
+        <v>0.10660853086241959</v>
+      </c>
+      <c r="O25" s="109"/>
       <c r="P25" s="41"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="78"/>
       <c r="G26" s="78"/>
       <c r="H26" s="78"/>
@@ -9469,11 +9469,11 @@
       <c r="P26" s="41"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="78"/>
       <c r="G27" s="78"/>
       <c r="H27" s="78"/>

--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DAF90E-9374-394F-8E2C-7BD35BF08F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AD9841-BB5F-C840-BFF4-696177EDC046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="244">
   <si>
     <t>2020 Y</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>Daily Change (%)</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -959,6 +962,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1042,7 +1051,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1087,68 +1096,86 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom/>
@@ -1156,21 +1183,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,7 +1202,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1188,7 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1251,252 +1414,264 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1534,6 +1709,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1551,7 +1727,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1563,6 +1739,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1690,11 +1867,11 @@
     <v>Powered by Refinitiv</v>
     <v>21.954999999999998</v>
     <v>12.43</v>
-    <v>1.821</v>
-    <v>-0.35499999999999998</v>
-    <v>-2.2697999999999999E-2</v>
-    <v>0.11</v>
-    <v>7.1940000000000007E-3</v>
+    <v>1.796</v>
+    <v>0.74</v>
+    <v>3.8764E-2</v>
+    <v>0.02</v>
+    <v>1.0090000000000001E-3</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
     <v>2200</v>
@@ -1702,24 +1879,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>15.8042</v>
+    <v>19.850000000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.970168483596</v>
+    <v>45261.964364779691</v>
     <v>0</v>
-    <v>15.265000000000001</v>
-    <v>4519374033</v>
+    <v>18.97</v>
+    <v>5863211453</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>15.77</v>
-    <v>15.64</v>
-    <v>15.285</v>
-    <v>15.4</v>
+    <v>18.97</v>
+    <v>19.09</v>
+    <v>19.829999999999998</v>
+    <v>19.850000000000001</v>
     <v>295673800</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>3051912</v>
-    <v>4238996</v>
+    <v>6326596</v>
+    <v>4234663</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2327,7 +2504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
+    <sheetView topLeftCell="A123" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
     </sheetView>
@@ -8561,7 +8738,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8569,1733 +8746,1793 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="e" vm="1">
+    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-    </row>
-    <row r="2" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+    </row>
+    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="A3" s="65" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>4519374033</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>5863211453</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="67">
         <f>Financials!F8*0.01</f>
         <v>0.67949999999999999</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="67">
         <f>SUM(C11:E11)/3</f>
         <v>1.0881898024370138</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="38">
-        <f>AVERAGE(Financials!C129:F129)</f>
-        <v>3.8856562110105408E-2</v>
-      </c>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="69">
+        <f>AVERAGE(Financials!E129:J129)</f>
+        <v>1.4993830192325086E-2</v>
+      </c>
+      <c r="H3" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>6480940097.937191</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="70">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>6218856821.8889675</v>
+      </c>
+      <c r="J3" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="103">
+      <c r="K3" s="72">
         <f>(Financials!F172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="112" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="41"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="A4" s="74">
         <f>Financials!F56-Financials!F96-Financials!F105</f>
         <v>706440000</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="36">
         <f>Financials!F17*0.01</f>
         <v>-0.79469999999999996</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>0.74606077009287108</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="77">
         <f>A5*(1+(5*G3))</f>
-        <v>353118136.87015438</v>
-      </c>
-      <c r="H4" s="47" t="s">
+        <v>317840213.74759746</v>
+      </c>
+      <c r="H4" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="I4" s="48">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>4536936454.7118397</v>
-      </c>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="35">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>4312605202.4655905</v>
+      </c>
+      <c r="J4" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="54" cm="1">
+      <c r="K4" s="78" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.2697999999999999E-2</v>
-      </c>
-      <c r="L4" s="47" t="s">
+        <v>3.8764E-2</v>
+      </c>
+      <c r="L4" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="114" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" cm="1">
+      <c r="A5" s="74" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>295673800</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="49">
-        <f>Financials!F34*0.01</f>
-        <v>-0.7419</v>
-      </c>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="36">
+        <f>F14</f>
+        <v>-0.1884297520661157</v>
+      </c>
+      <c r="D5" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="44">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="36">
+        <f>SUM(C16:E16)/3</f>
         <v>0.65026111927018104</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="77">
         <f>Financials!F56</f>
         <v>731596000</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>5243376454.7118397</v>
-      </c>
-      <c r="J5" s="45" t="s">
+        <v>5019045202.4655905</v>
+      </c>
+      <c r="J5" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="104" cm="1">
+      <c r="K5" s="81" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>15.285</v>
-      </c>
-      <c r="L5" s="43" t="s">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="L5" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="50" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="97">
         <f>Financials!F20</f>
         <v>-36693000</v>
       </c>
-      <c r="P5" s="41"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+      <c r="A6" s="83">
         <f>O20/F10</f>
-        <v>7.4700397239669423</v>
-      </c>
-      <c r="B6" s="43" t="s">
+        <v>9.6912585999999994</v>
+      </c>
+      <c r="B6" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="44">
-        <f>Financials!F190</f>
-        <v>-0.23566620186062304</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="36">
+        <f>F17</f>
+        <v>-0.11570247933884298</v>
+      </c>
+      <c r="D6" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="36">
         <f>Financials!F33/Financials!F126</f>
         <v>-0.24472431274023654</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="77">
         <f>Financials!F96+Financials!F105</f>
         <v>25156000</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="78">
         <f>N25</f>
-        <v>0.10660853086241959</v>
-      </c>
-      <c r="J6" s="47" t="s">
+        <v>0.11004778533224815</v>
+      </c>
+      <c r="J6" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="84">
         <f>I5/G4</f>
-        <v>14.848788287076543</v>
-      </c>
-      <c r="L6" s="56" t="s">
+        <v>15.791095605200239</v>
+      </c>
+      <c r="L6" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="57" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="97">
         <f>Financials!F96</f>
         <v>4637000</v>
       </c>
-      <c r="P6" s="41"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="86">
         <f>O20/F12</f>
-        <v>-39.643631868421053</v>
-      </c>
-      <c r="B7" s="60" t="s">
+        <v>-51.431679412280701</v>
+      </c>
+      <c r="B7" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="61">
-        <f>F14/A3</f>
-        <v>-1.5488870690690186E-2</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="88">
+        <f>F15/A3</f>
+        <v>-1.1938849649398786E-2</v>
+      </c>
+      <c r="D7" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="89">
         <f>(Financials!F16*(1-0.25))/(Financials!F126+Financials!F105+Financials!F96)</f>
         <v>-0.19354294739776087</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="90">
         <f>(Financials!F96+Financials!F105)/Financials!F126</f>
         <v>1.582816287982463E-2</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="92">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="94">
         <f>K6/K5-1</f>
-        <v>-2.8538548441181422E-2</v>
-      </c>
-      <c r="L7" s="69" t="s">
+        <v>-0.20367646973271614</v>
+      </c>
+      <c r="L7" s="95" t="s">
         <v>222</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="57" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="97">
         <f>Financials!F105</f>
         <v>20519000</v>
       </c>
-      <c r="P7" s="41"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="71" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="99">
         <f>O5/(O6+O7)</f>
         <v>-1.4586182222928923</v>
       </c>
-      <c r="P8" s="41"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46">
         <v>2020</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="46">
         <v>2021</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="46">
         <v>2022</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="47">
         <v>2023</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="48">
         <v>2024</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="49">
         <v>2025</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="49">
         <v>2026</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="49">
         <v>2027</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="50">
         <v>2028</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="57" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="97">
         <f>Financials!F25</f>
         <v>5437000</v>
       </c>
-      <c r="P9" s="41"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="52">
         <v>46474000</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="52">
         <v>93056000</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="52">
         <v>204799000</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="53">
         <v>422179000</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="52">
         <v>605000000</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="52">
         <v>791000000</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="52">
         <v>1032000000</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="52">
         <v>1427000000</v>
       </c>
-      <c r="J10" s="80">
+      <c r="J10" s="53">
         <v>1874000000</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="L10" s="38"/>
+      <c r="N10" s="96" t="s">
         <v>227</v>
       </c>
-      <c r="O10" s="58">
+      <c r="O10" s="97">
         <f>Financials!F24</f>
         <v>-383508000</v>
       </c>
-      <c r="P10" s="41"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84">
+      <c r="A11" s="55"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>1.0023238800189351</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
         <v>1.2008145632737275</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>1.061430964018379</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="40">
         <f t="shared" si="0"/>
         <v>0.43304143503111248</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>0.30743801652892566</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="39">
         <f t="shared" si="0"/>
         <v>0.30467762326169412</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
         <v>0.38275193798449614</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="56">
         <f t="shared" si="0"/>
         <v>0.31324456902592845</v>
       </c>
-      <c r="K11" s="86">
+      <c r="K11" s="56">
         <f>SUM(F11:J11)/5</f>
         <v>0.34823071636643138</v>
       </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="57" t="s">
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="O11" s="87">
+      <c r="O11" s="100">
         <f>O9/O10</f>
         <v>-1.4177018471583383E-2</v>
       </c>
-      <c r="P11" s="41"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="52">
         <v>-76567000</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="52">
         <v>-117573000</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="52">
         <v>-271101000</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="52">
         <v>-378678000</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="57">
         <v>-114000000</v>
       </c>
-      <c r="G12" s="80">
+      <c r="G12" s="52">
         <v>20000000</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="52">
         <v>99000000</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="52">
         <v>147200000</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="53">
         <v>285000000</v>
       </c>
-      <c r="K12" s="82" t="s">
+      <c r="K12" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="88" t="s">
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="100">
         <f>O8*(1-O11)</f>
         <v>-1.4792970797733269</v>
       </c>
-      <c r="P12" s="41"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84">
+      <c r="A13" s="55"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.53555709378714078</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="39">
         <f t="shared" si="1"/>
         <v>1.3058100073996579</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="39">
         <f t="shared" si="1"/>
         <v>0.39681520909181445</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="40">
         <f t="shared" si="1"/>
         <v>-0.6989526721911492</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
         <v>-1.1754385964912282</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="39">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
         <v>0.4868686868686869</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="56">
         <f t="shared" si="1"/>
         <v>0.93614130434782616</v>
       </c>
-      <c r="K13" s="86">
+      <c r="K13" s="56">
         <f>SUM(F13:J13)/5</f>
         <v>0.69972374450682717</v>
       </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="114" t="s">
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="O13" s="115"/>
-      <c r="P13" s="41"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="42">
+        <f>B12/B10</f>
+        <v>-1.6475233463872272</v>
+      </c>
+      <c r="C14" s="42">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>-1.2634650103163687</v>
+      </c>
+      <c r="D14" s="42">
+        <f t="shared" si="2"/>
+        <v>-1.3237418151455818</v>
+      </c>
+      <c r="E14" s="42">
+        <f t="shared" si="2"/>
+        <v>-0.89696076782596956</v>
+      </c>
+      <c r="F14" s="43">
+        <f t="shared" si="2"/>
+        <v>-0.1884297520661157</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="2"/>
+        <v>2.5284450063211124E-2</v>
+      </c>
+      <c r="H14" s="42">
+        <f t="shared" si="2"/>
+        <v>9.5930232558139539E-2</v>
+      </c>
+      <c r="I14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.10315346881569727</v>
+      </c>
+      <c r="J14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.1520811099252935</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="100">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B15" s="52">
         <v>-45577000</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C15" s="52">
         <v>-70077000</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D15" s="52">
         <v>-100043000</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E15" s="52">
         <v>-198647000</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F15" s="57">
         <v>-70000000</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G15" s="52">
         <v>58000000</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H15" s="52">
         <v>146000000</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I15" s="52">
         <v>343000000</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J15" s="53">
         <v>516000000</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K15" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="87">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="41"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="O15" s="101" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.796</v>
+      </c>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.53755183535555218</v>
       </c>
-      <c r="D15" s="84">
-        <f t="shared" si="2"/>
+      <c r="D16" s="39">
+        <f t="shared" si="3"/>
         <v>0.42761533741455837</v>
       </c>
-      <c r="E15" s="84">
-        <f t="shared" si="2"/>
+      <c r="E16" s="39">
+        <f t="shared" si="3"/>
         <v>0.98561618504043258</v>
       </c>
-      <c r="F15" s="85">
-        <f t="shared" si="2"/>
+      <c r="F16" s="40">
+        <f t="shared" si="3"/>
         <v>-0.64761612307258609</v>
       </c>
-      <c r="G15" s="84">
-        <f t="shared" si="2"/>
+      <c r="G16" s="39">
+        <f t="shared" si="3"/>
         <v>-1.8285714285714287</v>
       </c>
-      <c r="H15" s="84">
-        <f t="shared" si="2"/>
+      <c r="H16" s="39">
+        <f t="shared" si="3"/>
         <v>1.5172413793103448</v>
       </c>
-      <c r="I15" s="84">
-        <f t="shared" si="2"/>
+      <c r="I16" s="39">
+        <f t="shared" si="3"/>
         <v>1.3493150684931505</v>
       </c>
-      <c r="J15" s="84">
-        <f t="shared" si="2"/>
+      <c r="J16" s="56">
+        <f t="shared" si="3"/>
         <v>0.50437317784256552</v>
       </c>
-      <c r="K15" s="86">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="56">
+        <f>SUM(F16:J16)/5</f>
         <v>0.17894841480040918</v>
       </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="O15" s="91" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.821</v>
-      </c>
-      <c r="P15" s="41"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="O16" s="100">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="42">
+        <f>B15/B10</f>
+        <v>-0.9806988853982872</v>
+      </c>
+      <c r="C17" s="42">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>-0.75306267193947729</v>
+      </c>
+      <c r="D17" s="42">
+        <f t="shared" si="4"/>
+        <v>-0.48849359616013749</v>
+      </c>
+      <c r="E17" s="44">
+        <f t="shared" si="4"/>
+        <v>-0.4705279040407031</v>
+      </c>
+      <c r="F17" s="42">
+        <f t="shared" si="4"/>
+        <v>-0.11570247933884298</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="4"/>
+        <v>7.3324905183312264E-2</v>
+      </c>
+      <c r="H17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.14147286821705427</v>
+      </c>
+      <c r="I17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.24036440084092503</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.27534685165421557</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="O17" s="103">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.11686684000000001</v>
+      </c>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B18" s="61">
         <v>0.27484788505241553</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C18" s="61">
         <v>0.31115726075807532</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D18" s="61">
         <v>-0.11930937430798134</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E18" s="61">
         <v>-0.17932872002323483</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="O16" s="87">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="41"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="97" t="s">
-        <v>231</v>
-      </c>
-      <c r="O17" s="98">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.11543609000000001</v>
-      </c>
-      <c r="P17" s="41"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="114" t="s">
+      <c r="F18" s="62"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="115"/>
-      <c r="P18" s="41"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="116" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2013</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="78" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="57" t="s">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="O19" s="100">
+      <c r="O19" s="104">
         <f>O6+O7</f>
         <v>25156000</v>
       </c>
-      <c r="P19" s="41"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="105" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" s="104">
+        <f>A3</f>
+        <v>5863211453</v>
+      </c>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="118" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2013</v>
+      </c>
+      <c r="D21" s="119"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="O21" s="104">
+        <f>O19+O20</f>
+        <v>5888367453</v>
+      </c>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="120" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="O20" s="100">
-        <f>A3</f>
-        <v>4519374033</v>
-      </c>
-      <c r="P20" s="41"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="O21" s="100">
-        <f>O19+O20</f>
-        <v>4544530033</v>
-      </c>
-      <c r="P21" s="41"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="71" t="s">
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="O22" s="101">
+      <c r="O22" s="105">
         <f>(O19/O21)</f>
-        <v>5.5354458695025194E-3</v>
-      </c>
-      <c r="P22" s="41"/>
+        <v>4.2721518656556575E-3</v>
+      </c>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="97" t="s">
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="O23" s="102">
+      <c r="O23" s="106">
         <f>O20/O21</f>
-        <v>0.9944645541304975</v>
-      </c>
-      <c r="P23" s="41"/>
+        <v>0.99572784813434434</v>
+      </c>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="106" t="s">
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="107"/>
-      <c r="P24" s="41"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="108">
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10660853086241959</v>
-      </c>
-      <c r="O25" s="109"/>
-      <c r="P25" s="41"/>
+        <v>0.11004778533224815</v>
+      </c>
+      <c r="O25" s="111"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
-      <c r="P52" s="78"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -10303,11 +10540,12 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:SNOW/explorer/revenue_proj" xr:uid="{DCF4CE2E-3109-134C-BC3F-09E196845E0B}"/>
+    <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:S/explorer/revenue_proj" xr:uid="{DCF4CE2E-3109-134C-BC3F-09E196845E0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Technology/Software/SentinelOne.xlsx
+++ b/Technology/Software/SentinelOne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AD9841-BB5F-C840-BFF4-696177EDC046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017AAC02-1416-C24F-B814-83BF08754224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1708,6 +1708,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1727,7 +1729,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1740,6 +1742,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1865,38 +1869,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>21.954999999999998</v>
+    <v>24.55</v>
     <v>12.43</v>
-    <v>1.796</v>
-    <v>0.74</v>
-    <v>3.8764E-2</v>
-    <v>0.02</v>
-    <v>1.0090000000000001E-3</v>
+    <v>1.8049999999999999</v>
+    <v>0.57999999999999996</v>
+    <v>2.4765000000000002E-2</v>
+    <v>0.11</v>
+    <v>4.5830000000000003E-3</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is a cybersecurity provider that delivers an artificial intelligence-powered platform to enable autonomous cybersecurity defense. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. The Company's distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company's Singularity platform offers multi-tenancy and can be deployed on a diverse range of environments that its customers choose, including public, private, or hybrid clouds. The Company's Singularity platform defends against cyberattacks and features across Windows, macOS, Linux and Kubernetes software. The Company also delivers identity security as part of Singularity XDR for protection, including Singularity Identity, Singularity Ranger Active Directory Assessor and Singularity Hologram.</v>
-    <v>2200</v>
+    <v>2300</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>19.850000000000001</v>
+    <v>24.55</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.964364779691</v>
+    <v>45269.038935890625</v>
     <v>0</v>
-    <v>18.97</v>
-    <v>5863211453</v>
+    <v>22.52</v>
+    <v>7096171200</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>18.97</v>
-    <v>19.09</v>
-    <v>19.829999999999998</v>
-    <v>19.850000000000001</v>
+    <v>22.81</v>
+    <v>23.42</v>
+    <v>24</v>
+    <v>24.11</v>
     <v>295673800</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>6326596</v>
-    <v>4234663</v>
+    <v>11583589</v>
+    <v>6390083</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2058,9 +2062,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2504,7 +2508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
     </sheetView>
@@ -8738,7 +8742,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8787,7 +8791,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="65" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5863211453</v>
+        <v>7096171200</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>192</v>
@@ -8815,7 +8819,7 @@
       </c>
       <c r="I3" s="70">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>6218856821.8889675</v>
+        <v>6023784719.8269672</v>
       </c>
       <c r="J3" s="71" t="s">
         <v>196</v>
@@ -8865,14 +8869,14 @@
       </c>
       <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>4312605202.4655905</v>
+        <v>4145988945.9184632</v>
       </c>
       <c r="J4" s="76" t="s">
         <v>202</v>
       </c>
       <c r="K4" s="78" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.8764E-2</v>
+        <v>2.4765000000000002E-2</v>
       </c>
       <c r="L4" s="79" t="s">
         <v>242</v>
@@ -8894,7 +8898,7 @@
       </c>
       <c r="C5" s="36">
         <f>F14</f>
-        <v>-0.1884297520661157</v>
+        <v>-0.18506493506493507</v>
       </c>
       <c r="D5" s="80" t="s">
         <v>206</v>
@@ -8915,14 +8919,14 @@
       </c>
       <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>5019045202.4655905</v>
+        <v>4852428945.9184628</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>209</v>
       </c>
       <c r="K5" s="81" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>19.829999999999998</v>
+        <v>24</v>
       </c>
       <c r="L5" s="82" t="s">
         <v>210</v>
@@ -8940,14 +8944,14 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="83">
         <f>O20/F10</f>
-        <v>9.6912585999999994</v>
+        <v>11.519758441558441</v>
       </c>
       <c r="B6" s="75" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="36">
         <f>F17</f>
-        <v>-0.11570247933884298</v>
+        <v>-0.11363636363636363</v>
       </c>
       <c r="D6" s="80" t="s">
         <v>191</v>
@@ -8968,14 +8972,14 @@
       </c>
       <c r="I6" s="78">
         <f>N25</f>
-        <v>0.11004778533224815</v>
+        <v>0.1128019425659675</v>
       </c>
       <c r="J6" s="76" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="84">
         <f>I5/G4</f>
-        <v>15.791095605200239</v>
+        <v>15.266881709851424</v>
       </c>
       <c r="L6" s="85" t="s">
         <v>216</v>
@@ -8993,14 +8997,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86">
         <f>O20/F12</f>
-        <v>-51.431679412280701</v>
+        <v>-62.247115789473682</v>
       </c>
       <c r="B7" s="87" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="88">
         <f>F15/A3</f>
-        <v>-1.1938849649398786E-2</v>
+        <v>-9.8644745211333117E-3</v>
       </c>
       <c r="D7" s="87" t="s">
         <v>219</v>
@@ -9027,7 +9031,7 @@
       </c>
       <c r="K7" s="94">
         <f>K6/K5-1</f>
-        <v>-0.20367646973271614</v>
+        <v>-0.36387992875619068</v>
       </c>
       <c r="L7" s="95" t="s">
         <v>222</v>
@@ -9123,7 +9127,7 @@
         <v>422179000</v>
       </c>
       <c r="F10" s="52">
-        <v>605000000</v>
+        <v>616000000</v>
       </c>
       <c r="G10" s="52">
         <v>791000000</v>
@@ -9167,11 +9171,11 @@
       </c>
       <c r="F11" s="40">
         <f t="shared" si="0"/>
-        <v>0.43304143503111248</v>
+        <v>0.45909673384985994</v>
       </c>
       <c r="G11" s="39">
         <f t="shared" si="0"/>
-        <v>0.30743801652892566</v>
+        <v>0.28409090909090917</v>
       </c>
       <c r="H11" s="39">
         <f t="shared" si="0"/>
@@ -9187,7 +9191,7 @@
       </c>
       <c r="K11" s="56">
         <f>SUM(F11:J11)/5</f>
-        <v>0.34823071636643138</v>
+        <v>0.34877235464257755</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
@@ -9281,8 +9285,8 @@
         <v>0.93614130434782616</v>
       </c>
       <c r="K13" s="56">
-        <f>SUM(F13:J13)/5</f>
-        <v>0.69972374450682717</v>
+        <f>AVERAGE(C13:J13)</f>
+        <v>0.7171001291015936</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -9314,7 +9318,7 @@
       </c>
       <c r="F14" s="43">
         <f t="shared" si="2"/>
-        <v>-0.1884297520661157</v>
+        <v>-0.18506493506493507</v>
       </c>
       <c r="G14" s="42">
         <f t="shared" si="2"/>
@@ -9340,7 +9344,7 @@
       </c>
       <c r="O14" s="100">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
     </row>
@@ -9385,7 +9389,7 @@
       </c>
       <c r="O15" s="101" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.796</v>
+        <v>1.8049999999999999</v>
       </c>
       <c r="P15" s="34"/>
     </row>
@@ -9425,8 +9429,8 @@
         <v>0.50437317784256552</v>
       </c>
       <c r="K16" s="56">
-        <f>SUM(F16:J16)/5</f>
-        <v>0.17894841480040918</v>
+        <f>AVERAGE(C16:J16)</f>
+        <v>0.35569067897657369</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
@@ -9460,7 +9464,7 @@
       </c>
       <c r="F17" s="42">
         <f t="shared" si="4"/>
-        <v>-0.11570247933884298</v>
+        <v>-0.11363636363636363</v>
       </c>
       <c r="G17" s="42">
         <f t="shared" si="4"/>
@@ -9486,7 +9490,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.11686684000000001</v>
+        <v>0.11844594999999999</v>
       </c>
       <c r="P17" s="34"/>
     </row>
@@ -9564,7 +9568,7 @@
       </c>
       <c r="O20" s="104">
         <f>A3</f>
-        <v>5863211453</v>
+        <v>7096171200</v>
       </c>
       <c r="P20" s="34"/>
     </row>
@@ -9593,7 +9597,7 @@
       </c>
       <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>5888367453</v>
+        <v>7121327200</v>
       </c>
       <c r="P21" s="34"/>
     </row>
@@ -9619,7 +9623,7 @@
       </c>
       <c r="O22" s="105">
         <f>(O19/O21)</f>
-        <v>4.2721518656556575E-3</v>
+        <v>3.5324875958515148E-3</v>
       </c>
       <c r="P22" s="34"/>
     </row>
@@ -9642,7 +9646,7 @@
       </c>
       <c r="O23" s="106">
         <f>O20/O21</f>
-        <v>0.99572784813434434</v>
+        <v>0.99646751240414844</v>
       </c>
       <c r="P23" s="34"/>
     </row>
@@ -9682,7 +9686,7 @@
       <c r="M25" s="38"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11004778533224815</v>
+        <v>0.1128019425659675</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="34"/>
